--- a/ghtState.xlsx
+++ b/ghtState.xlsx
@@ -18743,15 +18743,474 @@
       <c r="A114" t="s">
         <v>168</v>
       </c>
+      <c r="B114">
+        <v>27.20734995727</v>
+      </c>
+      <c r="C114">
+        <v>26.756710750731</v>
+      </c>
+      <c r="D114">
+        <v>8.6556446496188</v>
+      </c>
+      <c r="F114">
+        <v>16.644351135372</v>
+      </c>
+      <c r="G114">
+        <v>10.710947740923</v>
+      </c>
+      <c r="H114">
+        <v>25.371782042797</v>
+      </c>
+      <c r="I114">
+        <v>23.963661320419</v>
+      </c>
+      <c r="J114">
+        <v>40.58388461278</v>
+      </c>
+      <c r="K114">
+        <v>22.733070768233</v>
+      </c>
+      <c r="L114">
+        <v>10.750358609551</v>
+      </c>
+      <c r="M114">
+        <v>16.794098743526</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>27.465208883461</v>
+      </c>
+      <c r="Q114">
+        <v>1.1086267494212</v>
+      </c>
+      <c r="R114">
+        <v>21.599004927257</v>
+      </c>
+      <c r="S114">
+        <v>19.526081668626</v>
+      </c>
+      <c r="T114">
+        <v>13.101455015926</v>
+      </c>
+      <c r="U114">
+        <v>28.88557970997</v>
+      </c>
+      <c r="V114">
+        <v>13.596180732265</v>
+      </c>
+      <c r="W114">
+        <v>28.457141883238</v>
+      </c>
+      <c r="X114">
+        <v>30.300669759933</v>
+      </c>
+      <c r="Y114">
+        <v>1.2866776474423</v>
+      </c>
+      <c r="Z114">
+        <v>21.332354418089</v>
+      </c>
+      <c r="AA114">
+        <v>30.563260146375</v>
+      </c>
+      <c r="AB114">
+        <v>7.9011719054156</v>
+      </c>
+      <c r="AD114">
+        <v>3.7342364277516</v>
+      </c>
+      <c r="AE114">
+        <v>20.396768022495</v>
+      </c>
+      <c r="AF114">
+        <v>18.83193600357</v>
+      </c>
+      <c r="AG114">
+        <v>16.975963094433</v>
+      </c>
+      <c r="AH114">
+        <v>25.521927260215</v>
+      </c>
+      <c r="AI114">
+        <v>48.637740076303</v>
+      </c>
+      <c r="AJ114">
+        <v>23.473073284315</v>
+      </c>
+      <c r="AK114">
+        <v>41.408544669022</v>
+      </c>
+      <c r="AL114">
+        <v>17.064865752604</v>
+      </c>
+      <c r="AM114">
+        <v>18.179518929851</v>
+      </c>
+      <c r="AN114">
+        <v>18.288697639538</v>
+      </c>
+      <c r="AO114">
+        <v>17.994559327022</v>
+      </c>
+      <c r="AP114">
+        <v>16.442901056491</v>
+      </c>
+      <c r="AQ114">
+        <v>15.611458477073</v>
+      </c>
+      <c r="AS114">
+        <v>22.599265237321</v>
+      </c>
+      <c r="AT114">
+        <v>16.818525567966</v>
+      </c>
+      <c r="AU114">
+        <v>0</v>
+      </c>
+      <c r="AV114">
+        <v>7.3636833511719</v>
+      </c>
+      <c r="AW114">
+        <v>9.902549388911799</v>
+      </c>
+      <c r="AX114">
+        <v>16.420360758195</v>
+      </c>
+      <c r="AY114">
+        <v>31.816367343658</v>
+      </c>
+      <c r="BA114">
+        <v>16.34454345141</v>
+      </c>
+      <c r="BB114">
+        <v>19.586923761138</v>
+      </c>
+      <c r="BC114">
+        <v>24.199781626211</v>
+      </c>
+      <c r="BD114">
+        <v>23.829680875717</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:57">
       <c r="A115" t="s">
         <v>169</v>
       </c>
+      <c r="B115">
+        <v>21.705010135124</v>
+      </c>
+      <c r="C115">
+        <v>24.508927774295</v>
+      </c>
+      <c r="D115">
+        <v>7.2467311267174</v>
+      </c>
+      <c r="F115">
+        <v>17.909966417827</v>
+      </c>
+      <c r="G115">
+        <v>10.438275727076</v>
+      </c>
+      <c r="H115">
+        <v>26.034187567222</v>
+      </c>
+      <c r="I115">
+        <v>25.888031524912</v>
+      </c>
+      <c r="J115">
+        <v>30.929045991111</v>
+      </c>
+      <c r="K115">
+        <v>16.082390163534</v>
+      </c>
+      <c r="L115">
+        <v>10.768608081588</v>
+      </c>
+      <c r="M115">
+        <v>18.580777773922</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>25.277916156209</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>19.982889818839</v>
+      </c>
+      <c r="S115">
+        <v>15.146924577409</v>
+      </c>
+      <c r="T115">
+        <v>20.73337990699</v>
+      </c>
+      <c r="U115">
+        <v>34.445285715602</v>
+      </c>
+      <c r="V115">
+        <v>9.875790165488599</v>
+      </c>
+      <c r="W115">
+        <v>28.302812647282</v>
+      </c>
+      <c r="X115">
+        <v>34.167853048212</v>
+      </c>
+      <c r="Y115">
+        <v>11.806859533893</v>
+      </c>
+      <c r="Z115">
+        <v>21.113428163562</v>
+      </c>
+      <c r="AA115">
+        <v>23.725836954511</v>
+      </c>
+      <c r="AB115">
+        <v>13.05363049075</v>
+      </c>
+      <c r="AD115">
+        <v>2.0266616858413</v>
+      </c>
+      <c r="AE115">
+        <v>13.953328318489</v>
+      </c>
+      <c r="AF115">
+        <v>15.441076322572</v>
+      </c>
+      <c r="AG115">
+        <v>14.120241674134</v>
+      </c>
+      <c r="AH115">
+        <v>18.906812543209</v>
+      </c>
+      <c r="AI115">
+        <v>58.514304869454</v>
+      </c>
+      <c r="AJ115">
+        <v>24.413497051226</v>
+      </c>
+      <c r="AK115">
+        <v>40.422409646705</v>
+      </c>
+      <c r="AL115">
+        <v>22.49363135427</v>
+      </c>
+      <c r="AM115">
+        <v>18.814835660521</v>
+      </c>
+      <c r="AN115">
+        <v>19.320082792275</v>
+      </c>
+      <c r="AO115">
+        <v>17.56834488004</v>
+      </c>
+      <c r="AP115">
+        <v>11.519143281065</v>
+      </c>
+      <c r="AQ115">
+        <v>14.582581526935</v>
+      </c>
+      <c r="AS115">
+        <v>14.734310949269</v>
+      </c>
+      <c r="AT115">
+        <v>12.473994318812</v>
+      </c>
+      <c r="AU115">
+        <v>0</v>
+      </c>
+      <c r="AV115">
+        <v>8.655993437286201</v>
+      </c>
+      <c r="AW115">
+        <v>10.474042391315</v>
+      </c>
+      <c r="AX115">
+        <v>12.767421928345</v>
+      </c>
+      <c r="AY115">
+        <v>32.642801209332</v>
+      </c>
+      <c r="BA115">
+        <v>11.44972175166</v>
+      </c>
+      <c r="BB115">
+        <v>17.081356315466</v>
+      </c>
+      <c r="BC115">
+        <v>18.675226910599</v>
+      </c>
+      <c r="BD115">
+        <v>19.075743827666</v>
+      </c>
+      <c r="BE115">
+        <v>26.162963554697</v>
+      </c>
     </row>
     <row r="116" spans="1:57">
       <c r="A116" t="s">
         <v>170</v>
+      </c>
+      <c r="B116">
+        <v>42.28784565364</v>
+      </c>
+      <c r="C116">
+        <v>22.221973476341</v>
+      </c>
+      <c r="D116">
+        <v>5.8274581393792</v>
+      </c>
+      <c r="F116">
+        <v>22.790273020667</v>
+      </c>
+      <c r="G116">
+        <v>10.468660201306</v>
+      </c>
+      <c r="H116">
+        <v>19.659499280458</v>
+      </c>
+      <c r="I116">
+        <v>23.491902092983</v>
+      </c>
+      <c r="J116">
+        <v>54.9657218419</v>
+      </c>
+      <c r="K116">
+        <v>24.260450571112</v>
+      </c>
+      <c r="L116">
+        <v>13.5509879454</v>
+      </c>
+      <c r="M116">
+        <v>17.576008254939</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>23.197313492124</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>20.478263228641</v>
+      </c>
+      <c r="S116">
+        <v>18.389998109944</v>
+      </c>
+      <c r="T116">
+        <v>15.664655464832</v>
+      </c>
+      <c r="U116">
+        <v>27.879179454593</v>
+      </c>
+      <c r="V116">
+        <v>6.5964420324248</v>
+      </c>
+      <c r="W116">
+        <v>24.911889377284</v>
+      </c>
+      <c r="X116">
+        <v>28.477663643498</v>
+      </c>
+      <c r="Y116">
+        <v>9.4908496043467</v>
+      </c>
+      <c r="Z116">
+        <v>20.529061955021</v>
+      </c>
+      <c r="AA116">
+        <v>17.464709262557</v>
+      </c>
+      <c r="AB116">
+        <v>12.427609175252</v>
+      </c>
+      <c r="AD116">
+        <v>0.7090308800507999</v>
+      </c>
+      <c r="AE116">
+        <v>8.4186554397686</v>
+      </c>
+      <c r="AF116">
+        <v>14.792426675948</v>
+      </c>
+      <c r="AG116">
+        <v>57.306489536257</v>
+      </c>
+      <c r="AH116">
+        <v>13.032747311241</v>
+      </c>
+      <c r="AI116">
+        <v>65.007899914642</v>
+      </c>
+      <c r="AJ116">
+        <v>28.877913371639</v>
+      </c>
+      <c r="AK116">
+        <v>31.366388926216</v>
+      </c>
+      <c r="AL116">
+        <v>17.816841009201</v>
+      </c>
+      <c r="AM116">
+        <v>17.735943305517</v>
+      </c>
+      <c r="AN116">
+        <v>23.062739893897</v>
+      </c>
+      <c r="AO116">
+        <v>12.62353876141</v>
+      </c>
+      <c r="AP116">
+        <v>7.2601054819719</v>
+      </c>
+      <c r="AQ116">
+        <v>14.73263870892</v>
+      </c>
+      <c r="AS116">
+        <v>19.975184921345</v>
+      </c>
+      <c r="AT116">
+        <v>8.5950999588249</v>
+      </c>
+      <c r="AU116">
+        <v>0</v>
+      </c>
+      <c r="AV116">
+        <v>12.060540606888</v>
+      </c>
+      <c r="AW116">
+        <v>11.532120512814</v>
+      </c>
+      <c r="AX116">
+        <v>9.395728199920001</v>
+      </c>
+      <c r="AY116">
+        <v>31.92512608739</v>
+      </c>
+      <c r="BA116">
+        <v>7.1909449638738</v>
+      </c>
+      <c r="BB116">
+        <v>17.86855265258</v>
+      </c>
+      <c r="BC116">
+        <v>16.032601476149</v>
+      </c>
+      <c r="BD116">
+        <v>14.581351955951</v>
+      </c>
+      <c r="BE116">
+        <v>22.533892667397</v>
       </c>
     </row>
     <row r="117" spans="1:57">

--- a/ghtState.xlsx
+++ b/ghtState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Alaska</t>
   </si>
@@ -537,6 +537,18 @@
   <si>
     <t>28 05 2020</t>
   </si>
+  <si>
+    <t>29 05 2020</t>
+  </si>
+  <si>
+    <t>30 05 2020</t>
+  </si>
+  <si>
+    <t>31 05 2020</t>
+  </si>
+  <si>
+    <t>01 06 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -867,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE119"/>
+  <dimension ref="A1:BE123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19217,15 +19229,647 @@
       <c r="A117" t="s">
         <v>171</v>
       </c>
+      <c r="B117">
+        <v>34.35316206269</v>
+      </c>
+      <c r="C117">
+        <v>31.461567974975</v>
+      </c>
+      <c r="D117">
+        <v>9.682141444889799</v>
+      </c>
+      <c r="F117">
+        <v>24.534816570541</v>
+      </c>
+      <c r="G117">
+        <v>9.9042134163728</v>
+      </c>
+      <c r="H117">
+        <v>18.009538566191</v>
+      </c>
+      <c r="I117">
+        <v>17.744587076551</v>
+      </c>
+      <c r="J117">
+        <v>56.261395292848</v>
+      </c>
+      <c r="K117">
+        <v>17.819177815061</v>
+      </c>
+      <c r="L117">
+        <v>14.581659545417</v>
+      </c>
+      <c r="M117">
+        <v>15.154890628045</v>
+      </c>
+      <c r="O117">
+        <v>9.5212119488586</v>
+      </c>
+      <c r="P117">
+        <v>20.672724956881</v>
+      </c>
+      <c r="Q117">
+        <v>13.315999747757</v>
+      </c>
+      <c r="R117">
+        <v>18.783205340643</v>
+      </c>
+      <c r="S117">
+        <v>18.238562052807</v>
+      </c>
+      <c r="T117">
+        <v>16.067581625616</v>
+      </c>
+      <c r="U117">
+        <v>24.824284513937</v>
+      </c>
+      <c r="V117">
+        <v>13.462587754797</v>
+      </c>
+      <c r="W117">
+        <v>24.292405097361</v>
+      </c>
+      <c r="X117">
+        <v>21.162607165411</v>
+      </c>
+      <c r="Y117">
+        <v>26.304868232186</v>
+      </c>
+      <c r="Z117">
+        <v>19.126088876036</v>
+      </c>
+      <c r="AA117">
+        <v>17.993302111515</v>
+      </c>
+      <c r="AB117">
+        <v>20.104919832136</v>
+      </c>
+      <c r="AD117">
+        <v>5.8353767234635</v>
+      </c>
+      <c r="AE117">
+        <v>3.9099752861643</v>
+      </c>
+      <c r="AF117">
+        <v>16.071638986805</v>
+      </c>
+      <c r="AG117">
+        <v>48.992419650377</v>
+      </c>
+      <c r="AH117">
+        <v>8.011057911075101</v>
+      </c>
+      <c r="AI117">
+        <v>76.464547603555</v>
+      </c>
+      <c r="AJ117">
+        <v>27.095108544429</v>
+      </c>
+      <c r="AK117">
+        <v>22.992724522718</v>
+      </c>
+      <c r="AL117">
+        <v>25.824251930266</v>
+      </c>
+      <c r="AM117">
+        <v>17.258483083738</v>
+      </c>
+      <c r="AN117">
+        <v>19.95497599782</v>
+      </c>
+      <c r="AO117">
+        <v>16.141133450342</v>
+      </c>
+      <c r="AP117">
+        <v>3.7387583781419</v>
+      </c>
+      <c r="AQ117">
+        <v>14.313975784886</v>
+      </c>
+      <c r="AS117">
+        <v>23.520662390165</v>
+      </c>
+      <c r="AT117">
+        <v>5.2651456417518</v>
+      </c>
+      <c r="AU117">
+        <v>0</v>
+      </c>
+      <c r="AV117">
+        <v>12.629980107353</v>
+      </c>
+      <c r="AW117">
+        <v>12.567674037473</v>
+      </c>
+      <c r="AX117">
+        <v>18.204474174019</v>
+      </c>
+      <c r="AY117">
+        <v>32.310924613671</v>
+      </c>
+      <c r="BA117">
+        <v>3.6719786796652</v>
+      </c>
+      <c r="BB117">
+        <v>14.950642786179</v>
+      </c>
+      <c r="BC117">
+        <v>15.435777693133</v>
+      </c>
+      <c r="BD117">
+        <v>10.481469747349</v>
+      </c>
+      <c r="BE117">
+        <v>18.784880893357</v>
+      </c>
     </row>
     <row r="118" spans="1:57">
       <c r="A118" t="s">
         <v>172</v>
       </c>
+      <c r="B118">
+        <v>26.697730813912</v>
+      </c>
+      <c r="C118">
+        <v>33.306399061421</v>
+      </c>
+      <c r="D118">
+        <v>7.7716216819366</v>
+      </c>
+      <c r="F118">
+        <v>22.295785257544</v>
+      </c>
+      <c r="G118">
+        <v>9.8609753062695</v>
+      </c>
+      <c r="H118">
+        <v>14.54587099109</v>
+      </c>
+      <c r="I118">
+        <v>21.121348619232</v>
+      </c>
+      <c r="J118">
+        <v>56.357269963873</v>
+      </c>
+      <c r="K118">
+        <v>12.208265793873</v>
+      </c>
+      <c r="L118">
+        <v>15.321996807082</v>
+      </c>
+      <c r="M118">
+        <v>15.461881412475</v>
+      </c>
+      <c r="O118">
+        <v>18.16039432267</v>
+      </c>
+      <c r="P118">
+        <v>18.784440737015</v>
+      </c>
+      <c r="Q118">
+        <v>27.305048192037</v>
+      </c>
+      <c r="R118">
+        <v>19.125364529924</v>
+      </c>
+      <c r="S118">
+        <v>20.071860176876</v>
+      </c>
+      <c r="T118">
+        <v>16.65668158002</v>
+      </c>
+      <c r="U118">
+        <v>25.012834387445</v>
+      </c>
+      <c r="V118">
+        <v>13.281739661556</v>
+      </c>
+      <c r="W118">
+        <v>20.681082230809</v>
+      </c>
+      <c r="X118">
+        <v>21.425731666838</v>
+      </c>
+      <c r="Y118">
+        <v>22.029343732872</v>
+      </c>
+      <c r="Z118">
+        <v>17.732842381566</v>
+      </c>
+      <c r="AA118">
+        <v>20.718213769303</v>
+      </c>
+      <c r="AB118">
+        <v>16.107489291758</v>
+      </c>
+      <c r="AD118">
+        <v>4.3882280913761</v>
+      </c>
+      <c r="AE118">
+        <v>28.867418248908</v>
+      </c>
+      <c r="AF118">
+        <v>17.616336043588</v>
+      </c>
+      <c r="AG118">
+        <v>100.6034170318</v>
+      </c>
+      <c r="AH118">
+        <v>10.570936229946</v>
+      </c>
+      <c r="AI118">
+        <v>60.36136425668</v>
+      </c>
+      <c r="AJ118">
+        <v>25.061183410066</v>
+      </c>
+      <c r="AK118">
+        <v>22.259395334311</v>
+      </c>
+      <c r="AL118">
+        <v>20.378164648417</v>
+      </c>
+      <c r="AM118">
+        <v>17.632696474895</v>
+      </c>
+      <c r="AN118">
+        <v>19.022125963684</v>
+      </c>
+      <c r="AO118">
+        <v>11.575885287139</v>
+      </c>
+      <c r="AP118">
+        <v>3.7373750871337</v>
+      </c>
+      <c r="AQ118">
+        <v>16.588643730519</v>
+      </c>
+      <c r="AS118">
+        <v>16.992048949138</v>
+      </c>
+      <c r="AT118">
+        <v>5.065297295052</v>
+      </c>
+      <c r="AU118">
+        <v>17.080443781854</v>
+      </c>
+      <c r="AV118">
+        <v>11.194987896274</v>
+      </c>
+      <c r="AW118">
+        <v>12.648418323732</v>
+      </c>
+      <c r="AX118">
+        <v>25.757899524294</v>
+      </c>
+      <c r="AY118">
+        <v>31.200521639934</v>
+      </c>
+      <c r="BA118">
+        <v>0.92795837399062</v>
+      </c>
+      <c r="BB118">
+        <v>10.819756225473</v>
+      </c>
+      <c r="BC118">
+        <v>10.773371180161</v>
+      </c>
+      <c r="BD118">
+        <v>16.681983930871</v>
+      </c>
+      <c r="BE118">
+        <v>15.033540794491</v>
+      </c>
     </row>
     <row r="119" spans="1:57">
       <c r="A119" t="s">
         <v>173</v>
+      </c>
+      <c r="B119">
+        <v>19.612749745187</v>
+      </c>
+      <c r="C119">
+        <v>28.904345372195</v>
+      </c>
+      <c r="D119">
+        <v>5.9367745895823</v>
+      </c>
+      <c r="F119">
+        <v>20.212330491732</v>
+      </c>
+      <c r="G119">
+        <v>10.453637582865</v>
+      </c>
+      <c r="H119">
+        <v>11.616673445176</v>
+      </c>
+      <c r="I119">
+        <v>26.593621105162</v>
+      </c>
+      <c r="J119">
+        <v>43.363817463451</v>
+      </c>
+      <c r="K119">
+        <v>7.4897432503356</v>
+      </c>
+      <c r="L119">
+        <v>12.759614544252</v>
+      </c>
+      <c r="M119">
+        <v>16.342859892792</v>
+      </c>
+      <c r="O119">
+        <v>15.712730221456</v>
+      </c>
+      <c r="P119">
+        <v>12.905006946854</v>
+      </c>
+      <c r="Q119">
+        <v>31.334366505694</v>
+      </c>
+      <c r="R119">
+        <v>20.225299074036</v>
+      </c>
+      <c r="S119">
+        <v>15.262442717391</v>
+      </c>
+      <c r="T119">
+        <v>22.290371342047</v>
+      </c>
+      <c r="U119">
+        <v>21.879859510669</v>
+      </c>
+      <c r="V119">
+        <v>9.874547665176999</v>
+      </c>
+      <c r="W119">
+        <v>20.423037610349</v>
+      </c>
+      <c r="X119">
+        <v>16.653120337102</v>
+      </c>
+      <c r="Y119">
+        <v>17.743743018998</v>
+      </c>
+      <c r="Z119">
+        <v>15.823293374388</v>
+      </c>
+      <c r="AA119">
+        <v>19.184288230055</v>
+      </c>
+      <c r="AB119">
+        <v>19.628299671174</v>
+      </c>
+      <c r="AD119">
+        <v>3.0974662759549</v>
+      </c>
+      <c r="AE119">
+        <v>22.957216037338</v>
+      </c>
+      <c r="AF119">
+        <v>18.518185575456</v>
+      </c>
+      <c r="AG119">
+        <v>84.672264231139</v>
+      </c>
+      <c r="AH119">
+        <v>13.264068425655</v>
+      </c>
+      <c r="AI119">
+        <v>45.349873687044</v>
+      </c>
+      <c r="AJ119">
+        <v>22.429948709845</v>
+      </c>
+      <c r="AK119">
+        <v>15.105904713753</v>
+      </c>
+      <c r="AL119">
+        <v>15.285332987769</v>
+      </c>
+      <c r="AM119">
+        <v>16.682381245011</v>
+      </c>
+      <c r="AN119">
+        <v>17.116048460989</v>
+      </c>
+      <c r="AO119">
+        <v>11.666229712074</v>
+      </c>
+      <c r="AP119">
+        <v>4.156740225037</v>
+      </c>
+      <c r="AQ119">
+        <v>14.379695826089</v>
+      </c>
+      <c r="AS119">
+        <v>11.426645824794</v>
+      </c>
+      <c r="AT119">
+        <v>10.450062819342</v>
+      </c>
+      <c r="AU119">
+        <v>15.18748826046</v>
+      </c>
+      <c r="AV119">
+        <v>21.369165750207</v>
+      </c>
+      <c r="AW119">
+        <v>12.150974068978</v>
+      </c>
+      <c r="AX119">
+        <v>24.538158898366</v>
+      </c>
+      <c r="AY119">
+        <v>26.956024057795</v>
+      </c>
+      <c r="BA119">
+        <v>19.404937588851</v>
+      </c>
+      <c r="BB119">
+        <v>10.248978662861</v>
+      </c>
+      <c r="BC119">
+        <v>15.008425431878</v>
+      </c>
+      <c r="BD119">
+        <v>21.926636173541</v>
+      </c>
+      <c r="BE119">
+        <v>11.414943856816</v>
+      </c>
+    </row>
+    <row r="120" spans="1:57">
+      <c r="A120" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120">
+        <v>13.32365269742</v>
+      </c>
+      <c r="C120">
+        <v>24.820140947707</v>
+      </c>
+      <c r="D120">
+        <v>4.2486678180018</v>
+      </c>
+      <c r="F120">
+        <v>16.528969778114</v>
+      </c>
+      <c r="G120">
+        <v>10.140283217175</v>
+      </c>
+      <c r="H120">
+        <v>9.2742608546016</v>
+      </c>
+      <c r="I120">
+        <v>20.318777969026</v>
+      </c>
+      <c r="J120">
+        <v>31.533400730774</v>
+      </c>
+      <c r="K120">
+        <v>3.6749308181075</v>
+      </c>
+      <c r="L120">
+        <v>10.986699158903</v>
+      </c>
+      <c r="M120">
+        <v>18.832241511016</v>
+      </c>
+      <c r="O120">
+        <v>23.60499955144</v>
+      </c>
+      <c r="P120">
+        <v>12.547994565143</v>
+      </c>
+      <c r="Q120">
+        <v>26.020612961396</v>
+      </c>
+      <c r="R120">
+        <v>17.469544848248</v>
+      </c>
+      <c r="S120">
+        <v>13.087251045331</v>
+      </c>
+      <c r="T120">
+        <v>22.425815553931</v>
+      </c>
+      <c r="U120">
+        <v>19.007614023498</v>
+      </c>
+      <c r="V120">
+        <v>6.8691130201028</v>
+      </c>
+      <c r="W120">
+        <v>23.435733571108</v>
+      </c>
+      <c r="X120">
+        <v>21.392083943849</v>
+      </c>
+      <c r="Y120">
+        <v>13.619147874391</v>
+      </c>
+      <c r="Z120">
+        <v>16.091685477995</v>
+      </c>
+      <c r="AA120">
+        <v>13.73666222201</v>
+      </c>
+      <c r="AB120">
+        <v>17.526552193139</v>
+      </c>
+      <c r="AD120">
+        <v>8.295849785462799</v>
+      </c>
+      <c r="AE120">
+        <v>17.572512308571</v>
+      </c>
+      <c r="AF120">
+        <v>19.354560055537</v>
+      </c>
+      <c r="AG120">
+        <v>68.438928797703</v>
+      </c>
+      <c r="AH120">
+        <v>9.205855068886899</v>
+      </c>
+      <c r="AI120">
+        <v>40.539021503028</v>
+      </c>
+      <c r="AJ120">
+        <v>17.41684418515</v>
+      </c>
+      <c r="AK120">
+        <v>9.05722870072</v>
+      </c>
+      <c r="AL120">
+        <v>18.821304125523</v>
+      </c>
+      <c r="AM120">
+        <v>16.387996652959</v>
+      </c>
+      <c r="AN120">
+        <v>15.381877191516</v>
+      </c>
+      <c r="AO120">
+        <v>7.931894438355</v>
+      </c>
+      <c r="AP120">
+        <v>2.0672388973494</v>
+      </c>
+      <c r="AQ120">
+        <v>18.43958511277</v>
+      </c>
+      <c r="AS120">
+        <v>6.8099260846574</v>
+      </c>
+      <c r="AT120">
+        <v>15.519300294733</v>
+      </c>
+      <c r="AU120">
+        <v>33.354746776157</v>
+      </c>
+      <c r="AV120">
+        <v>24.957865762314</v>
+      </c>
+      <c r="AW120">
+        <v>12.415777399898</v>
+      </c>
+      <c r="AX120">
+        <v>19.281041794621</v>
+      </c>
+      <c r="AY120">
+        <v>21.982460696777</v>
+      </c>
+      <c r="BA120">
+        <v>35.127483307948</v>
+      </c>
+      <c r="BB120">
+        <v>13.108066451965</v>
+      </c>
+      <c r="BC120">
+        <v>15.119539674056</v>
+      </c>
+      <c r="BD120">
+        <v>17.028707977123</v>
+      </c>
+      <c r="BE120">
+        <v>8.062473863743101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:57">
+      <c r="A121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:57">
+      <c r="A122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:57">
+      <c r="A123" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/ghtState.xlsx
+++ b/ghtState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Alaska</t>
   </si>
@@ -549,6 +549,27 @@
   <si>
     <t>01 06 2020</t>
   </si>
+  <si>
+    <t>02 06 2020</t>
+  </si>
+  <si>
+    <t>03 06 2020</t>
+  </si>
+  <si>
+    <t>04 06 2020</t>
+  </si>
+  <si>
+    <t>05 06 2020</t>
+  </si>
+  <si>
+    <t>06 06 2020</t>
+  </si>
+  <si>
+    <t>07 06 2020</t>
+  </si>
+  <si>
+    <t>08 06 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -879,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE123"/>
+  <dimension ref="A1:BE130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19861,15 +19882,815 @@
       <c r="A121" t="s">
         <v>175</v>
       </c>
+      <c r="B121">
+        <v>7.9793633664459</v>
+      </c>
+      <c r="C121">
+        <v>28.192103022013</v>
+      </c>
+      <c r="D121">
+        <v>2.7622782844218</v>
+      </c>
+      <c r="F121">
+        <v>19.26869413428</v>
+      </c>
+      <c r="G121">
+        <v>9.755931811637099</v>
+      </c>
+      <c r="H121">
+        <v>7.6944489497781</v>
+      </c>
+      <c r="I121">
+        <v>14.649260052593</v>
+      </c>
+      <c r="J121">
+        <v>21.165382416527</v>
+      </c>
+      <c r="K121">
+        <v>0.73035327311622</v>
+      </c>
+      <c r="L121">
+        <v>10.209984259055</v>
+      </c>
+      <c r="M121">
+        <v>19.900484662777</v>
+      </c>
+      <c r="O121">
+        <v>19.65571081483</v>
+      </c>
+      <c r="P121">
+        <v>18.531937544448</v>
+      </c>
+      <c r="Q121">
+        <v>30.083736418867</v>
+      </c>
+      <c r="R121">
+        <v>18.54789461307</v>
+      </c>
+      <c r="S121">
+        <v>11.54622864115</v>
+      </c>
+      <c r="T121">
+        <v>29.274399833841</v>
+      </c>
+      <c r="U121">
+        <v>17.047242217425</v>
+      </c>
+      <c r="V121">
+        <v>15.635438323867</v>
+      </c>
+      <c r="W121">
+        <v>24.235206158101</v>
+      </c>
+      <c r="X121">
+        <v>17.342062953384</v>
+      </c>
+      <c r="Y121">
+        <v>9.809186191754501</v>
+      </c>
+      <c r="Z121">
+        <v>14.375812879596</v>
+      </c>
+      <c r="AA121">
+        <v>18.952137270384</v>
+      </c>
+      <c r="AB121">
+        <v>23.423678577915</v>
+      </c>
+      <c r="AD121">
+        <v>6.5675985118081</v>
+      </c>
+      <c r="AE121">
+        <v>12.781980498621</v>
+      </c>
+      <c r="AF121">
+        <v>19.566816146605</v>
+      </c>
+      <c r="AG121">
+        <v>52.689514679252</v>
+      </c>
+      <c r="AH121">
+        <v>20.618120962682</v>
+      </c>
+      <c r="AI121">
+        <v>27.866317107946</v>
+      </c>
+      <c r="AJ121">
+        <v>15.893127791825</v>
+      </c>
+      <c r="AK121">
+        <v>4.1684779396163</v>
+      </c>
+      <c r="AL121">
+        <v>13.859553491327</v>
+      </c>
+      <c r="AM121">
+        <v>13.873918559562</v>
+      </c>
+      <c r="AN121">
+        <v>13.187131220059</v>
+      </c>
+      <c r="AO121">
+        <v>14.08609123705</v>
+      </c>
+      <c r="AP121">
+        <v>0.49211577166877</v>
+      </c>
+      <c r="AQ121">
+        <v>17.138834676148</v>
+      </c>
+      <c r="AS121">
+        <v>26.570557849293</v>
+      </c>
+      <c r="AT121">
+        <v>12.107879904044</v>
+      </c>
+      <c r="AU121">
+        <v>28.531612161365</v>
+      </c>
+      <c r="AV121">
+        <v>28.695993562957</v>
+      </c>
+      <c r="AW121">
+        <v>12.265849863824</v>
+      </c>
+      <c r="AX121">
+        <v>23.257677556078</v>
+      </c>
+      <c r="AY121">
+        <v>21.009251961086</v>
+      </c>
+      <c r="BA121">
+        <v>29.263906907568</v>
+      </c>
+      <c r="BB121">
+        <v>11.131767360069</v>
+      </c>
+      <c r="BC121">
+        <v>13.514553908772</v>
+      </c>
+      <c r="BD121">
+        <v>12.550292575792</v>
+      </c>
+      <c r="BE121">
+        <v>5.0904742527433</v>
+      </c>
     </row>
     <row r="122" spans="1:57">
       <c r="A122" t="s">
         <v>176</v>
       </c>
+      <c r="B122">
+        <v>3.65004346</v>
+      </c>
+      <c r="C122">
+        <v>27.8697077</v>
+      </c>
+      <c r="D122">
+        <v>1.51317463</v>
+      </c>
+      <c r="F122">
+        <v>19.76359971</v>
+      </c>
+      <c r="G122">
+        <v>8.265969849999999</v>
+      </c>
+      <c r="H122">
+        <v>4.36380014</v>
+      </c>
+      <c r="I122">
+        <v>9.710641839999999</v>
+      </c>
+      <c r="J122">
+        <v>12.44229112</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>7.12809171</v>
+      </c>
+      <c r="M122">
+        <v>16.25072625</v>
+      </c>
+      <c r="O122">
+        <v>15.67049883</v>
+      </c>
+      <c r="P122">
+        <v>13.48300133</v>
+      </c>
+      <c r="Q122">
+        <v>23.84991925</v>
+      </c>
+      <c r="R122">
+        <v>16.95679145</v>
+      </c>
+      <c r="S122">
+        <v>7.78752718</v>
+      </c>
+      <c r="T122">
+        <v>22.99940487</v>
+      </c>
+      <c r="U122">
+        <v>11.65694783</v>
+      </c>
+      <c r="V122">
+        <v>23.884027</v>
+      </c>
+      <c r="W122">
+        <v>17.92131912</v>
+      </c>
+      <c r="X122">
+        <v>17.99011484</v>
+      </c>
+      <c r="Y122">
+        <v>6.43688664</v>
+      </c>
+      <c r="Z122">
+        <v>10.0878038</v>
+      </c>
+      <c r="AA122">
+        <v>13.81895744</v>
+      </c>
+      <c r="AB122">
+        <v>23.44622886</v>
+      </c>
+      <c r="AD122">
+        <v>4.93398457</v>
+      </c>
+      <c r="AE122">
+        <v>8.63148221</v>
+      </c>
+      <c r="AF122">
+        <v>15.96056651</v>
+      </c>
+      <c r="AG122">
+        <v>38.10297313</v>
+      </c>
+      <c r="AH122">
+        <v>16.05116721</v>
+      </c>
+      <c r="AI122">
+        <v>17.10936954</v>
+      </c>
+      <c r="AJ122">
+        <v>10.70024875</v>
+      </c>
+      <c r="AK122">
+        <v>0.42056642</v>
+      </c>
+      <c r="AL122">
+        <v>9.47561163</v>
+      </c>
+      <c r="AM122">
+        <v>11.70473825</v>
+      </c>
+      <c r="AN122">
+        <v>8.99938935</v>
+      </c>
+      <c r="AO122">
+        <v>10.46861077</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
+      <c r="AQ122">
+        <v>12.76758938</v>
+      </c>
+      <c r="AS122">
+        <v>20.86167863</v>
+      </c>
+      <c r="AT122">
+        <v>9.00301595</v>
+      </c>
+      <c r="AU122">
+        <v>23.43453216</v>
+      </c>
+      <c r="AV122">
+        <v>25.10731323</v>
+      </c>
+      <c r="AW122">
+        <v>10.96353683</v>
+      </c>
+      <c r="AX122">
+        <v>26.49324001</v>
+      </c>
+      <c r="AY122">
+        <v>19.03021295</v>
+      </c>
+      <c r="BA122">
+        <v>23.50196581</v>
+      </c>
+      <c r="BB122">
+        <v>11.06733191</v>
+      </c>
+      <c r="BC122">
+        <v>9.602136740000001</v>
+      </c>
+      <c r="BD122">
+        <v>19.80941516</v>
+      </c>
+      <c r="BE122">
+        <v>2.58132174</v>
+      </c>
     </row>
     <row r="123" spans="1:57">
       <c r="A123" t="s">
         <v>177</v>
+      </c>
+      <c r="B123">
+        <v>0.33261593</v>
+      </c>
+      <c r="C123">
+        <v>26.72782824</v>
+      </c>
+      <c r="D123">
+        <v>0.51673582</v>
+      </c>
+      <c r="F123">
+        <v>16.21266104</v>
+      </c>
+      <c r="G123">
+        <v>7.11528969</v>
+      </c>
+      <c r="H123">
+        <v>1.73307085</v>
+      </c>
+      <c r="I123">
+        <v>11.27197903</v>
+      </c>
+      <c r="J123">
+        <v>5.43032054</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>4.48569053</v>
+      </c>
+      <c r="M123">
+        <v>14.40723369</v>
+      </c>
+      <c r="O123">
+        <v>11.84629811</v>
+      </c>
+      <c r="P123">
+        <v>22.72056603</v>
+      </c>
+      <c r="Q123">
+        <v>17.91722489</v>
+      </c>
+      <c r="R123">
+        <v>17.28638513</v>
+      </c>
+      <c r="S123">
+        <v>11.12361928</v>
+      </c>
+      <c r="T123">
+        <v>27.70669178</v>
+      </c>
+      <c r="U123">
+        <v>10.53132546</v>
+      </c>
+      <c r="V123">
+        <v>19.28559141</v>
+      </c>
+      <c r="W123">
+        <v>18.32209622</v>
+      </c>
+      <c r="X123">
+        <v>12.65911024</v>
+      </c>
+      <c r="Y123">
+        <v>3.58587684</v>
+      </c>
+      <c r="Z123">
+        <v>10.14289731</v>
+      </c>
+      <c r="AA123">
+        <v>9.34993148</v>
+      </c>
+      <c r="AB123">
+        <v>22.51639154</v>
+      </c>
+      <c r="AD123">
+        <v>3.44367724</v>
+      </c>
+      <c r="AE123">
+        <v>5.14387324</v>
+      </c>
+      <c r="AF123">
+        <v>17.1895849</v>
+      </c>
+      <c r="AG123">
+        <v>25.20269832</v>
+      </c>
+      <c r="AH123">
+        <v>24.99290531</v>
+      </c>
+      <c r="AI123">
+        <v>8.36831941</v>
+      </c>
+      <c r="AJ123">
+        <v>9.631990699999999</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>17.798114</v>
+      </c>
+      <c r="AM123">
+        <v>10.29631048</v>
+      </c>
+      <c r="AN123">
+        <v>7.59109927</v>
+      </c>
+      <c r="AO123">
+        <v>7.31571323</v>
+      </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
+      <c r="AQ123">
+        <v>12.10834695</v>
+      </c>
+      <c r="AS123">
+        <v>15.62441736</v>
+      </c>
+      <c r="AT123">
+        <v>6.25393297</v>
+      </c>
+      <c r="AU123">
+        <v>36.62207215</v>
+      </c>
+      <c r="AV123">
+        <v>19.33846922</v>
+      </c>
+      <c r="AW123">
+        <v>9.54122564</v>
+      </c>
+      <c r="AX123">
+        <v>20.47635393</v>
+      </c>
+      <c r="AY123">
+        <v>14.24071164</v>
+      </c>
+      <c r="BA123">
+        <v>18.0220487</v>
+      </c>
+      <c r="BB123">
+        <v>9.33711001</v>
+      </c>
+      <c r="BC123">
+        <v>10.52602255</v>
+      </c>
+      <c r="BD123">
+        <v>15.08302874</v>
+      </c>
+      <c r="BE123">
+        <v>0.57841406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:57">
+      <c r="A124" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>19.54634249</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>11.3761136</v>
+      </c>
+      <c r="G124">
+        <v>6.39803663</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>10.13823245</v>
+      </c>
+      <c r="J124">
+        <v>38.41940162</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>4.43171955</v>
+      </c>
+      <c r="M124">
+        <v>12.29190437</v>
+      </c>
+      <c r="O124">
+        <v>8.348088860000001</v>
+      </c>
+      <c r="P124">
+        <v>17.39827087</v>
+      </c>
+      <c r="Q124">
+        <v>12.514154</v>
+      </c>
+      <c r="R124">
+        <v>16.14245443</v>
+      </c>
+      <c r="S124">
+        <v>7.78096814</v>
+      </c>
+      <c r="T124">
+        <v>21.20781956</v>
+      </c>
+      <c r="U124">
+        <v>6.43529045</v>
+      </c>
+      <c r="V124">
+        <v>28.18993689</v>
+      </c>
+      <c r="W124">
+        <v>12.8850658</v>
+      </c>
+      <c r="X124">
+        <v>13.33761491</v>
+      </c>
+      <c r="Y124">
+        <v>1.29674604</v>
+      </c>
+      <c r="Z124">
+        <v>9.222967560000001</v>
+      </c>
+      <c r="AA124">
+        <v>7.6618515</v>
+      </c>
+      <c r="AB124">
+        <v>21.49262175</v>
+      </c>
+      <c r="AD124">
+        <v>2.13668045</v>
+      </c>
+      <c r="AE124">
+        <v>2.31855851</v>
+      </c>
+      <c r="AF124">
+        <v>16.58513926</v>
+      </c>
+      <c r="AG124">
+        <v>14.32949972</v>
+      </c>
+      <c r="AH124">
+        <v>19.72882658</v>
+      </c>
+      <c r="AI124">
+        <v>1.61756365</v>
+      </c>
+      <c r="AJ124">
+        <v>8.97017224</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>17.40202088</v>
+      </c>
+      <c r="AM124">
+        <v>8.85165497</v>
+      </c>
+      <c r="AN124">
+        <v>4.46281503</v>
+      </c>
+      <c r="AO124">
+        <v>4.64280044</v>
+      </c>
+      <c r="AP124">
+        <v>0.97702061</v>
+      </c>
+      <c r="AQ124">
+        <v>11.13261749</v>
+      </c>
+      <c r="AS124">
+        <v>10.94501316</v>
+      </c>
+      <c r="AT124">
+        <v>6.66947289</v>
+      </c>
+      <c r="AU124">
+        <v>29.58568074</v>
+      </c>
+      <c r="AV124">
+        <v>16.01379889</v>
+      </c>
+      <c r="AW124">
+        <v>8.11083241</v>
+      </c>
+      <c r="AX124">
+        <v>14.96960451</v>
+      </c>
+      <c r="AY124">
+        <v>11.54717713</v>
+      </c>
+      <c r="BA124">
+        <v>53.59802094</v>
+      </c>
+      <c r="BB124">
+        <v>6.41102402</v>
+      </c>
+      <c r="BC124">
+        <v>9.42868908</v>
+      </c>
+      <c r="BD124">
+        <v>20.80958069</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:57">
+      <c r="A125" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>27.53724147</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>10.63284612</v>
+      </c>
+      <c r="G125">
+        <v>5.40077105</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>11.98111968</v>
+      </c>
+      <c r="J125">
+        <v>53.92679791</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>6.09252161</v>
+      </c>
+      <c r="M125">
+        <v>10.41332465</v>
+      </c>
+      <c r="O125">
+        <v>5.29769845</v>
+      </c>
+      <c r="P125">
+        <v>12.60070428</v>
+      </c>
+      <c r="Q125">
+        <v>7.81239225</v>
+      </c>
+      <c r="R125">
+        <v>15.29151498</v>
+      </c>
+      <c r="S125">
+        <v>4.95017637</v>
+      </c>
+      <c r="T125">
+        <v>20.31850067</v>
+      </c>
+      <c r="U125">
+        <v>9.7244007</v>
+      </c>
+      <c r="V125">
+        <v>22.54734873</v>
+      </c>
+      <c r="W125">
+        <v>9.6731011</v>
+      </c>
+      <c r="X125">
+        <v>12.22125457</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>8.43037247</v>
+      </c>
+      <c r="AA125">
+        <v>8.458074119999999</v>
+      </c>
+      <c r="AB125">
+        <v>20.13981098</v>
+      </c>
+      <c r="AD125">
+        <v>6.74881888</v>
+      </c>
+      <c r="AE125">
+        <v>0.13166108</v>
+      </c>
+      <c r="AF125">
+        <v>13.13324635</v>
+      </c>
+      <c r="AG125">
+        <v>44.56530818</v>
+      </c>
+      <c r="AH125">
+        <v>14.8212818</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>6.48714289</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>16.77220248</v>
+      </c>
+      <c r="AM125">
+        <v>8.26309198</v>
+      </c>
+      <c r="AN125">
+        <v>8.04869225</v>
+      </c>
+      <c r="AO125">
+        <v>2.44921995</v>
+      </c>
+      <c r="AP125">
+        <v>0.41727147</v>
+      </c>
+      <c r="AQ125">
+        <v>10.23971034</v>
+      </c>
+      <c r="AS125">
+        <v>6.89401319</v>
+      </c>
+      <c r="AT125">
+        <v>6.98211387</v>
+      </c>
+      <c r="AU125">
+        <v>22.79200537</v>
+      </c>
+      <c r="AV125">
+        <v>14.77535793</v>
+      </c>
+      <c r="AW125">
+        <v>7.71545812</v>
+      </c>
+      <c r="AX125">
+        <v>28.85687188</v>
+      </c>
+      <c r="AY125">
+        <v>12.97377111</v>
+      </c>
+      <c r="BA125">
+        <v>63.05946682</v>
+      </c>
+      <c r="BB125">
+        <v>9.713180899999999</v>
+      </c>
+      <c r="BC125">
+        <v>8.5274167</v>
+      </c>
+      <c r="BD125">
+        <v>15.90845047</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:57">
+      <c r="A126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:57">
+      <c r="A127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:57">
+      <c r="A128" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/ghtState.xlsx
+++ b/ghtState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Alaska</t>
   </si>
@@ -570,6 +570,15 @@
   <si>
     <t>08 06 2020</t>
   </si>
+  <si>
+    <t>09 06 2020</t>
+  </si>
+  <si>
+    <t>10 06 2020</t>
+  </si>
+  <si>
+    <t>11 06 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -900,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE130"/>
+  <dimension ref="A1:BE133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20672,16 +20681,475 @@
       <c r="A126" t="s">
         <v>180</v>
       </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>32.07978307</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>6.80280734</v>
+      </c>
+      <c r="G126">
+        <v>5.04657086</v>
+      </c>
+      <c r="H126">
+        <v>3.2209418</v>
+      </c>
+      <c r="I126">
+        <v>13.94355935</v>
+      </c>
+      <c r="J126">
+        <v>55.36038006</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>6.96277437</v>
+      </c>
+      <c r="M126">
+        <v>7.85478858</v>
+      </c>
+      <c r="O126">
+        <v>23.01027401</v>
+      </c>
+      <c r="P126">
+        <v>12.73224361</v>
+      </c>
+      <c r="Q126">
+        <v>3.91673055</v>
+      </c>
+      <c r="R126">
+        <v>12.50150664</v>
+      </c>
+      <c r="S126">
+        <v>2.63621836</v>
+      </c>
+      <c r="T126">
+        <v>14.52614555</v>
+      </c>
+      <c r="U126">
+        <v>12.64333675</v>
+      </c>
+      <c r="V126">
+        <v>17.19320619</v>
+      </c>
+      <c r="W126">
+        <v>8.553894509999999</v>
+      </c>
+      <c r="X126">
+        <v>13.15363959</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>11.56076124</v>
+      </c>
+      <c r="AA126">
+        <v>7.41078836</v>
+      </c>
+      <c r="AB126">
+        <v>14.774324</v>
+      </c>
+      <c r="AD126">
+        <v>5.18150865</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+      <c r="AF126">
+        <v>11.17758416</v>
+      </c>
+      <c r="AG126">
+        <v>91.83488593</v>
+      </c>
+      <c r="AH126">
+        <v>23.55689551</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>4.6159519</v>
+      </c>
+      <c r="AK126">
+        <v>13.54985888</v>
+      </c>
+      <c r="AL126">
+        <v>12.38255236</v>
+      </c>
+      <c r="AM126">
+        <v>8.052551920000001</v>
+      </c>
+      <c r="AN126">
+        <v>7.37004402</v>
+      </c>
+      <c r="AO126">
+        <v>0.71876079</v>
+      </c>
+      <c r="AP126">
+        <v>0</v>
+      </c>
+      <c r="AQ126">
+        <v>11.46008882</v>
+      </c>
+      <c r="AS126">
+        <v>3.51636536</v>
+      </c>
+      <c r="AT126">
+        <v>4.7534468</v>
+      </c>
+      <c r="AU126">
+        <v>16.5254644</v>
+      </c>
+      <c r="AV126">
+        <v>11.89476536</v>
+      </c>
+      <c r="AW126">
+        <v>6.55495944</v>
+      </c>
+      <c r="AX126">
+        <v>30.01355252</v>
+      </c>
+      <c r="AY126">
+        <v>8.557738369999999</v>
+      </c>
+      <c r="BA126">
+        <v>51.55977704</v>
+      </c>
+      <c r="BB126">
+        <v>11.3179946</v>
+      </c>
+      <c r="BC126">
+        <v>8.955335959999999</v>
+      </c>
+      <c r="BD126">
+        <v>11.48459981</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:57">
       <c r="A127" t="s">
         <v>181</v>
       </c>
+      <c r="B127">
+        <v>12.11784292</v>
+      </c>
+      <c r="C127">
+        <v>12.90241976</v>
+      </c>
+      <c r="D127">
+        <v>11.06935687</v>
+      </c>
+      <c r="F127">
+        <v>19.02024904</v>
+      </c>
+      <c r="G127">
+        <v>4.64298119</v>
+      </c>
+      <c r="H127">
+        <v>13.62890831</v>
+      </c>
+      <c r="I127">
+        <v>15.43696148</v>
+      </c>
+      <c r="J127">
+        <v>17.58095808</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>7.48620792</v>
+      </c>
+      <c r="M127">
+        <v>5.20524368</v>
+      </c>
+      <c r="O127">
+        <v>24.6347654</v>
+      </c>
+      <c r="P127">
+        <v>33.14337674</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>10.81020647</v>
+      </c>
+      <c r="S127">
+        <v>8.342476420000001</v>
+      </c>
+      <c r="T127">
+        <v>7.67983638</v>
+      </c>
+      <c r="U127">
+        <v>7.05930321</v>
+      </c>
+      <c r="V127">
+        <v>12.1142975</v>
+      </c>
+      <c r="W127">
+        <v>4.7618873</v>
+      </c>
+      <c r="X127">
+        <v>11.31835808</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>4.67643394</v>
+      </c>
+      <c r="AA127">
+        <v>17.36561475</v>
+      </c>
+      <c r="AB127">
+        <v>5.73872636</v>
+      </c>
+      <c r="AD127">
+        <v>16.54105508</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>6.13644652</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>21.61167123</v>
+      </c>
+      <c r="AI127">
+        <v>23.81508638</v>
+      </c>
+      <c r="AJ127">
+        <v>11.44296435</v>
+      </c>
+      <c r="AK127">
+        <v>13.97531241</v>
+      </c>
+      <c r="AL127">
+        <v>4.83495465</v>
+      </c>
+      <c r="AM127">
+        <v>6.97583575</v>
+      </c>
+      <c r="AN127">
+        <v>7.97452242</v>
+      </c>
+      <c r="AO127">
+        <v>14.12392325</v>
+      </c>
+      <c r="AP127">
+        <v>0.58220671</v>
+      </c>
+      <c r="AQ127">
+        <v>11.1920124</v>
+      </c>
+      <c r="AS127">
+        <v>3.55089838</v>
+      </c>
+      <c r="AT127">
+        <v>7.52339399</v>
+      </c>
+      <c r="AU127">
+        <v>33.73535995</v>
+      </c>
+      <c r="AV127">
+        <v>5.73327049</v>
+      </c>
+      <c r="AW127">
+        <v>5.86441641</v>
+      </c>
+      <c r="AX127">
+        <v>23.22632091</v>
+      </c>
+      <c r="AY127">
+        <v>11.31163493</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>2.0799488</v>
+      </c>
+      <c r="BC127">
+        <v>6.43477271</v>
+      </c>
+      <c r="BD127">
+        <v>4.14052513</v>
+      </c>
+      <c r="BE127">
+        <v>7.78016808</v>
+      </c>
     </row>
     <row r="128" spans="1:57">
       <c r="A128" t="s">
         <v>182</v>
       </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>20.1847512</v>
+      </c>
+      <c r="D128">
+        <v>17.36458959</v>
+      </c>
+      <c r="F128">
+        <v>11.97709067</v>
+      </c>
+      <c r="G128">
+        <v>4.23053211</v>
+      </c>
+      <c r="H128">
+        <v>4.5700691</v>
+      </c>
+      <c r="I128">
+        <v>13.62297787</v>
+      </c>
+      <c r="J128">
+        <v>33.41345571</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>4.21639424</v>
+      </c>
+      <c r="M128">
+        <v>6.12105556</v>
+      </c>
+      <c r="O128">
+        <v>14.40135234</v>
+      </c>
+      <c r="P128">
+        <v>9.12511645</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>9.35806429</v>
+      </c>
+      <c r="S128">
+        <v>1.30880036</v>
+      </c>
+      <c r="T128">
+        <v>5.29410722</v>
+      </c>
+      <c r="U128">
+        <v>13.623206</v>
+      </c>
+      <c r="V128">
+        <v>13.79106166</v>
+      </c>
+      <c r="W128">
+        <v>6.4331438</v>
+      </c>
+      <c r="X128">
+        <v>9.23574571</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>10.45310043</v>
+      </c>
+      <c r="AA128">
+        <v>8.715119769999999</v>
+      </c>
+      <c r="AB128">
+        <v>8.527367979999999</v>
+      </c>
+      <c r="AD128">
+        <v>9.297101469999999</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+      <c r="AF128">
+        <v>6.56132347</v>
+      </c>
+      <c r="AG128">
+        <v>58.9119578</v>
+      </c>
+      <c r="AH128">
+        <v>13.13776974</v>
+      </c>
+      <c r="AI128">
+        <v>22.69229168</v>
+      </c>
+      <c r="AJ128">
+        <v>6.30727045</v>
+      </c>
+      <c r="AK128">
+        <v>9.18140395</v>
+      </c>
+      <c r="AL128">
+        <v>5.2439938</v>
+      </c>
+      <c r="AM128">
+        <v>6.45307393</v>
+      </c>
+      <c r="AN128">
+        <v>5.63611264</v>
+      </c>
+      <c r="AO128">
+        <v>1.97619827</v>
+      </c>
+      <c r="AP128">
+        <v>0</v>
+      </c>
+      <c r="AQ128">
+        <v>9.076702640000001</v>
+      </c>
+      <c r="AS128">
+        <v>7.25985526</v>
+      </c>
+      <c r="AT128">
+        <v>6.63328624</v>
+      </c>
+      <c r="AU128">
+        <v>6.34905301</v>
+      </c>
+      <c r="AV128">
+        <v>6.40174806</v>
+      </c>
+      <c r="AW128">
+        <v>5.11233129</v>
+      </c>
+      <c r="AX128">
+        <v>17.08847955</v>
+      </c>
+      <c r="AY128">
+        <v>7.02619867</v>
+      </c>
+      <c r="BA128">
+        <v>29.86337551</v>
+      </c>
+      <c r="BB128">
+        <v>8.506800500000001</v>
+      </c>
+      <c r="BC128">
+        <v>5.78040292</v>
+      </c>
+      <c r="BD128">
+        <v>20.96817893</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
@@ -20691,6 +21159,21 @@
     <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/ghtState.xlsx
+++ b/ghtState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Alaska</t>
   </si>
@@ -579,6 +579,21 @@
   <si>
     <t>11 06 2020</t>
   </si>
+  <si>
+    <t>12 06 2020</t>
+  </si>
+  <si>
+    <t>13 06 2020</t>
+  </si>
+  <si>
+    <t>14 06 2020</t>
+  </si>
+  <si>
+    <t>15 06 2020</t>
+  </si>
+  <si>
+    <t>16 06 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -909,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE133"/>
+  <dimension ref="A1:BE138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21151,29 +21166,819 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:57">
       <c r="A129" t="s">
         <v>183</v>
       </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>17.20807329</v>
+      </c>
+      <c r="D129">
+        <v>14.58552442</v>
+      </c>
+      <c r="F129">
+        <v>8.71650363</v>
+      </c>
+      <c r="G129">
+        <v>4.67333119</v>
+      </c>
+      <c r="H129">
+        <v>5.62085695</v>
+      </c>
+      <c r="I129">
+        <v>26.05446455</v>
+      </c>
+      <c r="J129">
+        <v>40.99309282</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>4.78830415</v>
+      </c>
+      <c r="M129">
+        <v>6.02733612</v>
+      </c>
+      <c r="O129">
+        <v>10.61220495</v>
+      </c>
+      <c r="P129">
+        <v>16.34807654</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>8.09460938</v>
+      </c>
+      <c r="S129">
+        <v>0.08782403</v>
+      </c>
+      <c r="T129">
+        <v>1.94960327</v>
+      </c>
+      <c r="U129">
+        <v>21.5141204</v>
+      </c>
+      <c r="V129">
+        <v>9.30895261</v>
+      </c>
+      <c r="W129">
+        <v>5.38962135</v>
+      </c>
+      <c r="X129">
+        <v>5.99072799</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>7.50256169</v>
+      </c>
+      <c r="AA129">
+        <v>8.54673124</v>
+      </c>
+      <c r="AB129">
+        <v>4.98426428</v>
+      </c>
+      <c r="AD129">
+        <v>14.02706181</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <v>10.18305994</v>
+      </c>
+      <c r="AG129">
+        <v>44.06894207</v>
+      </c>
+      <c r="AH129">
+        <v>8.7611451</v>
+      </c>
+      <c r="AI129">
+        <v>18.17558423</v>
+      </c>
+      <c r="AJ129">
+        <v>6.89173799</v>
+      </c>
+      <c r="AK129">
+        <v>7.11122558</v>
+      </c>
+      <c r="AL129">
+        <v>2.56184109</v>
+      </c>
+      <c r="AM129">
+        <v>5.37916867</v>
+      </c>
+      <c r="AN129">
+        <v>6.04331513</v>
+      </c>
+      <c r="AO129">
+        <v>0.87616961</v>
+      </c>
+      <c r="AP129">
+        <v>0</v>
+      </c>
+      <c r="AQ129">
+        <v>9.589908489999999</v>
+      </c>
+      <c r="AS129">
+        <v>4.55979374</v>
+      </c>
+      <c r="AT129">
+        <v>13.61055638</v>
+      </c>
+      <c r="AU129">
+        <v>2.62965983</v>
+      </c>
+      <c r="AV129">
+        <v>3.39230694</v>
+      </c>
+      <c r="AW129">
+        <v>6.7438732</v>
+      </c>
+      <c r="AX129">
+        <v>11.64725314</v>
+      </c>
+      <c r="AY129">
+        <v>8.604010329999999</v>
+      </c>
+      <c r="BA129">
+        <v>20.47123762</v>
+      </c>
+      <c r="BB129">
+        <v>7.5962332</v>
+      </c>
+      <c r="BC129">
+        <v>6.1721437</v>
+      </c>
+      <c r="BD129">
+        <v>15.8286717</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:57">
       <c r="A130" t="s">
         <v>184</v>
       </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>11.40048223</v>
+      </c>
+      <c r="D130">
+        <v>21.60637698</v>
+      </c>
+      <c r="F130">
+        <v>10.94627302</v>
+      </c>
+      <c r="G130">
+        <v>4.00333396</v>
+      </c>
+      <c r="H130">
+        <v>10.05645183</v>
+      </c>
+      <c r="I130">
+        <v>26.52391811</v>
+      </c>
+      <c r="J130">
+        <v>30.45625107</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>5.06222596</v>
+      </c>
+      <c r="M130">
+        <v>7.19607686</v>
+      </c>
+      <c r="O130">
+        <v>7.28011515</v>
+      </c>
+      <c r="P130">
+        <v>16.49292348</v>
+      </c>
+      <c r="Q130">
+        <v>3.87629904</v>
+      </c>
+      <c r="R130">
+        <v>7.64158813</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>4.26930726</v>
+      </c>
+      <c r="U130">
+        <v>17.12957909</v>
+      </c>
+      <c r="V130">
+        <v>5.51843684</v>
+      </c>
+      <c r="W130">
+        <v>2.97935059</v>
+      </c>
+      <c r="X130">
+        <v>3.29584595</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>7.37237426</v>
+      </c>
+      <c r="AA130">
+        <v>5.97360161</v>
+      </c>
+      <c r="AB130">
+        <v>8.369071460000001</v>
+      </c>
+      <c r="AD130">
+        <v>11.46470357</v>
+      </c>
+      <c r="AE130">
+        <v>0</v>
+      </c>
+      <c r="AF130">
+        <v>7.15984241</v>
+      </c>
+      <c r="AG130">
+        <v>30.79379088</v>
+      </c>
+      <c r="AH130">
+        <v>5.06139863</v>
+      </c>
+      <c r="AI130">
+        <v>13.96683018</v>
+      </c>
+      <c r="AJ130">
+        <v>9.04419399</v>
+      </c>
+      <c r="AK130">
+        <v>5.16566561</v>
+      </c>
+      <c r="AL130">
+        <v>4.30256142</v>
+      </c>
+      <c r="AM130">
+        <v>4.74722383</v>
+      </c>
+      <c r="AN130">
+        <v>8.040732520000001</v>
+      </c>
+      <c r="AO130">
+        <v>0.03551607</v>
+      </c>
+      <c r="AP130">
+        <v>7.12979595</v>
+      </c>
+      <c r="AQ130">
+        <v>7.67395586</v>
+      </c>
+      <c r="AS130">
+        <v>2.35247588</v>
+      </c>
+      <c r="AT130">
+        <v>13.34101353</v>
+      </c>
+      <c r="AU130">
+        <v>0</v>
+      </c>
+      <c r="AV130">
+        <v>1.05474576</v>
+      </c>
+      <c r="AW130">
+        <v>7.06754971</v>
+      </c>
+      <c r="AX130">
+        <v>7.02904397</v>
+      </c>
+      <c r="AY130">
+        <v>9.73175955</v>
+      </c>
+      <c r="BA130">
+        <v>12.42166853</v>
+      </c>
+      <c r="BB130">
+        <v>6.61966598</v>
+      </c>
+      <c r="BC130">
+        <v>6.15932654</v>
+      </c>
+      <c r="BD130">
+        <v>40.37806209</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:57">
       <c r="A131" t="s">
         <v>185</v>
       </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>6.54229638</v>
+      </c>
+      <c r="D131">
+        <v>17.65812753</v>
+      </c>
+      <c r="F131">
+        <v>17.24137469</v>
+      </c>
+      <c r="G131">
+        <v>4.13257332</v>
+      </c>
+      <c r="H131">
+        <v>10.02233859</v>
+      </c>
+      <c r="I131">
+        <v>21.03769226</v>
+      </c>
+      <c r="J131">
+        <v>21.05491696</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>5.68090728</v>
+      </c>
+      <c r="M131">
+        <v>6.86427349</v>
+      </c>
+      <c r="O131">
+        <v>4.45401316</v>
+      </c>
+      <c r="P131">
+        <v>12.32744833</v>
+      </c>
+      <c r="Q131">
+        <v>2.60470253</v>
+      </c>
+      <c r="R131">
+        <v>5.68343809</v>
+      </c>
+      <c r="S131">
+        <v>0.67238996</v>
+      </c>
+      <c r="T131">
+        <v>1.91832383</v>
+      </c>
+      <c r="U131">
+        <v>13.01139408</v>
+      </c>
+      <c r="V131">
+        <v>2.45594408</v>
+      </c>
+      <c r="W131">
+        <v>5.35728562</v>
+      </c>
+      <c r="X131">
+        <v>4.51329764</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>6.15100094</v>
+      </c>
+      <c r="AA131">
+        <v>9.78661728</v>
+      </c>
+      <c r="AB131">
+        <v>5.47142634</v>
+      </c>
+      <c r="AD131">
+        <v>8.979015240000001</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+      <c r="AF131">
+        <v>8.93359529</v>
+      </c>
+      <c r="AG131">
+        <v>19.34413132</v>
+      </c>
+      <c r="AH131">
+        <v>2.07348453</v>
+      </c>
+      <c r="AI131">
+        <v>10.10597822</v>
+      </c>
+      <c r="AJ131">
+        <v>9.93192825</v>
+      </c>
+      <c r="AK131">
+        <v>9.798531029999999</v>
+      </c>
+      <c r="AL131">
+        <v>10.05228948</v>
+      </c>
+      <c r="AM131">
+        <v>3.44318693</v>
+      </c>
+      <c r="AN131">
+        <v>8.922040369999999</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>6.12126127</v>
+      </c>
+      <c r="AQ131">
+        <v>7.87571496</v>
+      </c>
+      <c r="AS131">
+        <v>10.42740654</v>
+      </c>
+      <c r="AT131">
+        <v>15.5100335</v>
+      </c>
+      <c r="AU131">
+        <v>0</v>
+      </c>
+      <c r="AV131">
+        <v>0</v>
+      </c>
+      <c r="AW131">
+        <v>8.01861501</v>
+      </c>
+      <c r="AX131">
+        <v>3.27467119</v>
+      </c>
+      <c r="AY131">
+        <v>8.113857210000001</v>
+      </c>
+      <c r="BA131">
+        <v>5.84931883</v>
+      </c>
+      <c r="BB131">
+        <v>7.23781876</v>
+      </c>
+      <c r="BC131">
+        <v>4.1368153</v>
+      </c>
+      <c r="BD131">
+        <v>32.83434199</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:57">
       <c r="A132" t="s">
         <v>186</v>
       </c>
+      <c r="B132">
+        <v>68.98079386000001</v>
+      </c>
+      <c r="C132">
+        <v>8.58255484</v>
+      </c>
+      <c r="D132">
+        <v>24.70437325</v>
+      </c>
+      <c r="F132">
+        <v>18.91333897</v>
+      </c>
+      <c r="G132">
+        <v>3.67249539</v>
+      </c>
+      <c r="H132">
+        <v>7.87474352</v>
+      </c>
+      <c r="I132">
+        <v>24.73973704</v>
+      </c>
+      <c r="J132">
+        <v>12.98595827</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>9.06133945</v>
+      </c>
+      <c r="M132">
+        <v>6.80630719</v>
+      </c>
+      <c r="O132">
+        <v>12.57714401</v>
+      </c>
+      <c r="P132">
+        <v>8.62181552</v>
+      </c>
+      <c r="Q132">
+        <v>1.61508309</v>
+      </c>
+      <c r="R132">
+        <v>7.61090445</v>
+      </c>
+      <c r="S132">
+        <v>0.07743877</v>
+      </c>
+      <c r="T132">
+        <v>0.16252944</v>
+      </c>
+      <c r="U132">
+        <v>9.26529298</v>
+      </c>
+      <c r="V132">
+        <v>13.26510061</v>
+      </c>
+      <c r="W132">
+        <v>9.42641334</v>
+      </c>
+      <c r="X132">
+        <v>2.46608269</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>6.36154568</v>
+      </c>
+      <c r="AA132">
+        <v>11.42156943</v>
+      </c>
+      <c r="AB132">
+        <v>5.29601895</v>
+      </c>
+      <c r="AD132">
+        <v>24.79842656</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>10.28806075</v>
+      </c>
+      <c r="AG132">
+        <v>9.868817290000001</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>24.51862952</v>
+      </c>
+      <c r="AJ132">
+        <v>10.83665062</v>
+      </c>
+      <c r="AK132">
+        <v>7.47412598</v>
+      </c>
+      <c r="AL132">
+        <v>11.5933864</v>
+      </c>
+      <c r="AM132">
+        <v>4.3115808</v>
+      </c>
+      <c r="AN132">
+        <v>6.67586756</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AP132">
+        <v>5.05431991</v>
+      </c>
+      <c r="AQ132">
+        <v>8.203993560000001</v>
+      </c>
+      <c r="AS132">
+        <v>7.93934126</v>
+      </c>
+      <c r="AT132">
+        <v>20.28322983</v>
+      </c>
+      <c r="AU132">
+        <v>0</v>
+      </c>
+      <c r="AV132">
+        <v>2.03998797</v>
+      </c>
+      <c r="AW132">
+        <v>8.34149098</v>
+      </c>
+      <c r="AX132">
+        <v>0.37422763</v>
+      </c>
+      <c r="AY132">
+        <v>10.00824699</v>
+      </c>
+      <c r="BA132">
+        <v>0.77548398</v>
+      </c>
+      <c r="BB132">
+        <v>5.0225499</v>
+      </c>
+      <c r="BC132">
+        <v>8.798180009999999</v>
+      </c>
+      <c r="BD132">
+        <v>25.59059791</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:57">
       <c r="A133" t="s">
         <v>187</v>
+      </c>
+      <c r="B133">
+        <v>60.83197031</v>
+      </c>
+      <c r="C133">
+        <v>7.97757033</v>
+      </c>
+      <c r="D133">
+        <v>25.20856944</v>
+      </c>
+      <c r="F133">
+        <v>18.38425545</v>
+      </c>
+      <c r="G133">
+        <v>4.58487107</v>
+      </c>
+      <c r="H133">
+        <v>14.1474077</v>
+      </c>
+      <c r="I133">
+        <v>18.97250376</v>
+      </c>
+      <c r="J133">
+        <v>6.35579651</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>8.757541870000001</v>
+      </c>
+      <c r="M133">
+        <v>6.85349555</v>
+      </c>
+      <c r="O133">
+        <v>9.526485510000001</v>
+      </c>
+      <c r="P133">
+        <v>5.43345061</v>
+      </c>
+      <c r="Q133">
+        <v>0.84431749</v>
+      </c>
+      <c r="R133">
+        <v>7.85883252</v>
+      </c>
+      <c r="S133">
+        <v>8.60817756</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>5.97854034</v>
+      </c>
+      <c r="V133">
+        <v>21.70381958</v>
+      </c>
+      <c r="W133">
+        <v>11.36447413</v>
+      </c>
+      <c r="X133">
+        <v>2.5672452</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>5.5208287</v>
+      </c>
+      <c r="AA133">
+        <v>10.84520587</v>
+      </c>
+      <c r="AB133">
+        <v>7.59345689</v>
+      </c>
+      <c r="AD133">
+        <v>26.68647647</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>9.81664662</v>
+      </c>
+      <c r="AG133">
+        <v>2.40173939</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>19.36076939</v>
+      </c>
+      <c r="AJ133">
+        <v>8.22267759</v>
+      </c>
+      <c r="AK133">
+        <v>5.32833836</v>
+      </c>
+      <c r="AL133">
+        <v>8.903849900000001</v>
+      </c>
+      <c r="AM133">
+        <v>5.39199688</v>
+      </c>
+      <c r="AN133">
+        <v>4.66531372</v>
+      </c>
+      <c r="AO133">
+        <v>2.91220572</v>
+      </c>
+      <c r="AP133">
+        <v>9.607176040000001</v>
+      </c>
+      <c r="AQ133">
+        <v>7.64649576</v>
+      </c>
+      <c r="AS133">
+        <v>5.71677675</v>
+      </c>
+      <c r="AT133">
+        <v>18.94377602</v>
+      </c>
+      <c r="AU133">
+        <v>0</v>
+      </c>
+      <c r="AV133">
+        <v>6.7439089</v>
+      </c>
+      <c r="AW133">
+        <v>9.862051210000001</v>
+      </c>
+      <c r="AX133">
+        <v>6.32825181</v>
+      </c>
+      <c r="AY133">
+        <v>12.32978222</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>3.13367456</v>
+      </c>
+      <c r="BC133">
+        <v>8.892672040000001</v>
+      </c>
+      <c r="BD133">
+        <v>18.88431091</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:57">
+      <c r="A134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:57">
+      <c r="A135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:57">
+      <c r="A136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:57">
+      <c r="A137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:57">
+      <c r="A138" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/ghtState.xlsx
+++ b/ghtState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Alaska</t>
   </si>
@@ -594,6 +594,24 @@
   <si>
     <t>16 06 2020</t>
   </si>
+  <si>
+    <t>17 06 2020</t>
+  </si>
+  <si>
+    <t>18 06 2020</t>
+  </si>
+  <si>
+    <t>19 06 2020</t>
+  </si>
+  <si>
+    <t>20 06 2020</t>
+  </si>
+  <si>
+    <t>21 06 2020</t>
+  </si>
+  <si>
+    <t>22 06 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -924,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE138"/>
+  <dimension ref="A1:BE144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21960,25 +21978,973 @@
       <c r="A134" t="s">
         <v>188</v>
       </c>
+      <c r="B134">
+        <v>51.70431659</v>
+      </c>
+      <c r="C134">
+        <v>4.69340585</v>
+      </c>
+      <c r="D134">
+        <v>19.81901565</v>
+      </c>
+      <c r="F134">
+        <v>21.41013262</v>
+      </c>
+      <c r="G134">
+        <v>5.49657888</v>
+      </c>
+      <c r="H134">
+        <v>15.55046069</v>
+      </c>
+      <c r="I134">
+        <v>19.87018943</v>
+      </c>
+      <c r="J134">
+        <v>15.04428631</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>9.046151630000001</v>
+      </c>
+      <c r="M134">
+        <v>8.1088351</v>
+      </c>
+      <c r="O134">
+        <v>6.82665842</v>
+      </c>
+      <c r="P134">
+        <v>2.79281869</v>
+      </c>
+      <c r="Q134">
+        <v>0.24394001</v>
+      </c>
+      <c r="R134">
+        <v>7.37937308</v>
+      </c>
+      <c r="S134">
+        <v>7.22508909</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>10.26990046</v>
+      </c>
+      <c r="V134">
+        <v>17.42657623</v>
+      </c>
+      <c r="W134">
+        <v>16.67125231</v>
+      </c>
+      <c r="X134">
+        <v>7.20383191</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>8.89232056</v>
+      </c>
+      <c r="AA134">
+        <v>10.4179613</v>
+      </c>
+      <c r="AB134">
+        <v>7.66490779</v>
+      </c>
+      <c r="AD134">
+        <v>21.70689912</v>
+      </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
+      <c r="AF134">
+        <v>8.31088928</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
+      <c r="AI134">
+        <v>14.48860021</v>
+      </c>
+      <c r="AJ134">
+        <v>10.49924398</v>
+      </c>
+      <c r="AK134">
+        <v>3.42908838</v>
+      </c>
+      <c r="AL134">
+        <v>6.47732484</v>
+      </c>
+      <c r="AM134">
+        <v>6.10131629</v>
+      </c>
+      <c r="AN134">
+        <v>4.00821148</v>
+      </c>
+      <c r="AO134">
+        <v>15.03714918</v>
+      </c>
+      <c r="AP134">
+        <v>7.89556947</v>
+      </c>
+      <c r="AQ134">
+        <v>11.21904771</v>
+      </c>
+      <c r="AS134">
+        <v>3.7793864</v>
+      </c>
+      <c r="AT134">
+        <v>14.7661431</v>
+      </c>
+      <c r="AU134">
+        <v>38.02402435</v>
+      </c>
+      <c r="AV134">
+        <v>9.22121288</v>
+      </c>
+      <c r="AW134">
+        <v>10.00786153</v>
+      </c>
+      <c r="AX134">
+        <v>12.18631262</v>
+      </c>
+      <c r="AY134">
+        <v>9.30897</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>1.58268273</v>
+      </c>
+      <c r="BC134">
+        <v>6.70113936</v>
+      </c>
+      <c r="BD134">
+        <v>12.90796437</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:57">
       <c r="A135" t="s">
         <v>189</v>
       </c>
+      <c r="B135">
+        <v>42.13616601</v>
+      </c>
+      <c r="C135">
+        <v>2.08872188</v>
+      </c>
+      <c r="D135">
+        <v>14.77759727</v>
+      </c>
+      <c r="F135">
+        <v>20.61961183</v>
+      </c>
+      <c r="G135">
+        <v>6.72975819</v>
+      </c>
+      <c r="H135">
+        <v>14.6761495</v>
+      </c>
+      <c r="I135">
+        <v>21.69454794</v>
+      </c>
+      <c r="J135">
+        <v>64.08657862</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>11.32387081</v>
+      </c>
+      <c r="M135">
+        <v>8.3727047</v>
+      </c>
+      <c r="O135">
+        <v>4.50517852</v>
+      </c>
+      <c r="P135">
+        <v>0.70240984</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>11.02245303</v>
+      </c>
+      <c r="S135">
+        <v>5.83595685</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>7.19118985</v>
+      </c>
+      <c r="V135">
+        <v>21.40604538</v>
+      </c>
+      <c r="W135">
+        <v>15.2197034</v>
+      </c>
+      <c r="X135">
+        <v>15.86690706</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>11.20449185</v>
+      </c>
+      <c r="AA135">
+        <v>15.77574508</v>
+      </c>
+      <c r="AB135">
+        <v>15.96441776</v>
+      </c>
+      <c r="AD135">
+        <v>16.87711882</v>
+      </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
+      <c r="AF135">
+        <v>5.83736239</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>13.25756579</v>
+      </c>
+      <c r="AI135">
+        <v>10.06045671</v>
+      </c>
+      <c r="AJ135">
+        <v>12.06175255</v>
+      </c>
+      <c r="AK135">
+        <v>1.82312556</v>
+      </c>
+      <c r="AL135">
+        <v>4.34633875</v>
+      </c>
+      <c r="AM135">
+        <v>7.15165137</v>
+      </c>
+      <c r="AN135">
+        <v>2.4248385</v>
+      </c>
+      <c r="AO135">
+        <v>27.18952414</v>
+      </c>
+      <c r="AP135">
+        <v>6.2006259</v>
+      </c>
+      <c r="AQ135">
+        <v>10.78794228</v>
+      </c>
+      <c r="AS135">
+        <v>2.14056167</v>
+      </c>
+      <c r="AT135">
+        <v>10.8796859</v>
+      </c>
+      <c r="AU135">
+        <v>33.06988131</v>
+      </c>
+      <c r="AV135">
+        <v>9.57764017</v>
+      </c>
+      <c r="AW135">
+        <v>12.76660331</v>
+      </c>
+      <c r="AX135">
+        <v>9.31834082</v>
+      </c>
+      <c r="AY135">
+        <v>6.5834046</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>2.03125337</v>
+      </c>
+      <c r="BC135">
+        <v>4.73642319</v>
+      </c>
+      <c r="BD135">
+        <v>7.79613421</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:57">
       <c r="A136" t="s">
         <v>190</v>
       </c>
+      <c r="B136">
+        <v>32.65836362</v>
+      </c>
+      <c r="C136">
+        <v>3.6103201</v>
+      </c>
+      <c r="D136">
+        <v>10.25757835</v>
+      </c>
+      <c r="F136">
+        <v>25.77337444</v>
+      </c>
+      <c r="G136">
+        <v>6.98822937</v>
+      </c>
+      <c r="H136">
+        <v>11.33121216</v>
+      </c>
+      <c r="I136">
+        <v>16.06613735</v>
+      </c>
+      <c r="J136">
+        <v>53.05671889</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>13.28040872</v>
+      </c>
+      <c r="M136">
+        <v>11.02390005</v>
+      </c>
+      <c r="O136">
+        <v>2.57392181</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>12.70284185</v>
+      </c>
+      <c r="S136">
+        <v>9.619901390000001</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>4.56329295</v>
+      </c>
+      <c r="V136">
+        <v>16.79212632</v>
+      </c>
+      <c r="W136">
+        <v>11.82540187</v>
+      </c>
+      <c r="X136">
+        <v>19.21001413</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>11.72202677</v>
+      </c>
+      <c r="AA136">
+        <v>22.99573928</v>
+      </c>
+      <c r="AB136">
+        <v>12.82712867</v>
+      </c>
+      <c r="AD136">
+        <v>12.38611894</v>
+      </c>
+      <c r="AE136">
+        <v>15.30555642</v>
+      </c>
+      <c r="AF136">
+        <v>7.66026746</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+      <c r="AH136">
+        <v>11.04476053</v>
+      </c>
+      <c r="AI136">
+        <v>6.20057569</v>
+      </c>
+      <c r="AJ136">
+        <v>9.162452200000001</v>
+      </c>
+      <c r="AK136">
+        <v>15.66837231</v>
+      </c>
+      <c r="AL136">
+        <v>7.00803294</v>
+      </c>
+      <c r="AM136">
+        <v>8.788713019999999</v>
+      </c>
+      <c r="AN136">
+        <v>3.57988818</v>
+      </c>
+      <c r="AO136">
+        <v>28.05443975</v>
+      </c>
+      <c r="AP136">
+        <v>4.59849623</v>
+      </c>
+      <c r="AQ136">
+        <v>10.33431854</v>
+      </c>
+      <c r="AS136">
+        <v>0.80483169</v>
+      </c>
+      <c r="AT136">
+        <v>7.40734924</v>
+      </c>
+      <c r="AU136">
+        <v>27.78786411</v>
+      </c>
+      <c r="AV136">
+        <v>7.53140022</v>
+      </c>
+      <c r="AW136">
+        <v>13.9720067</v>
+      </c>
+      <c r="AX136">
+        <v>6.7842094</v>
+      </c>
+      <c r="AY136">
+        <v>7.31203225</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>4.39228728</v>
+      </c>
+      <c r="BC136">
+        <v>11.14946749</v>
+      </c>
+      <c r="BD136">
+        <v>3.61934772</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:57">
       <c r="A137" t="s">
         <v>191</v>
       </c>
+      <c r="B137">
+        <v>23.74409981</v>
+      </c>
+      <c r="C137">
+        <v>1.7554282</v>
+      </c>
+      <c r="D137">
+        <v>17.34767707</v>
+      </c>
+      <c r="F137">
+        <v>27.4016708</v>
+      </c>
+      <c r="G137">
+        <v>6.9421677</v>
+      </c>
+      <c r="H137">
+        <v>8.243027039999999</v>
+      </c>
+      <c r="I137">
+        <v>11.0839135</v>
+      </c>
+      <c r="J137">
+        <v>42.32705769</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>13.76575957</v>
+      </c>
+      <c r="M137">
+        <v>11.70565977</v>
+      </c>
+      <c r="O137">
+        <v>1.02884108</v>
+      </c>
+      <c r="P137">
+        <v>7.30955046</v>
+      </c>
+      <c r="Q137">
+        <v>15.4088639</v>
+      </c>
+      <c r="R137">
+        <v>10.7229255</v>
+      </c>
+      <c r="S137">
+        <v>7.73414474</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>9.19166817</v>
+      </c>
+      <c r="V137">
+        <v>12.50428827</v>
+      </c>
+      <c r="W137">
+        <v>14.05999118</v>
+      </c>
+      <c r="X137">
+        <v>15.6527237</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>12.94118804</v>
+      </c>
+      <c r="AA137">
+        <v>20.71240431</v>
+      </c>
+      <c r="AB137">
+        <v>9.853996240000001</v>
+      </c>
+      <c r="AD137">
+        <v>8.38425559</v>
+      </c>
+      <c r="AE137">
+        <v>13.59770492</v>
+      </c>
+      <c r="AF137">
+        <v>8.79379846</v>
+      </c>
+      <c r="AG137">
+        <v>10.13587195</v>
+      </c>
+      <c r="AH137">
+        <v>8.90023736</v>
+      </c>
+      <c r="AI137">
+        <v>21.60315092</v>
+      </c>
+      <c r="AJ137">
+        <v>8.82758318</v>
+      </c>
+      <c r="AK137">
+        <v>12.8554084</v>
+      </c>
+      <c r="AL137">
+        <v>12.88196201</v>
+      </c>
+      <c r="AM137">
+        <v>9.01693796</v>
+      </c>
+      <c r="AN137">
+        <v>3.33646066</v>
+      </c>
+      <c r="AO137">
+        <v>31.48444179</v>
+      </c>
+      <c r="AP137">
+        <v>5.9702498</v>
+      </c>
+      <c r="AQ137">
+        <v>9.613640029999999</v>
+      </c>
+      <c r="AS137">
+        <v>21.01414392</v>
+      </c>
+      <c r="AT137">
+        <v>7.12622169</v>
+      </c>
+      <c r="AU137">
+        <v>22.40339103</v>
+      </c>
+      <c r="AV137">
+        <v>11.56804438</v>
+      </c>
+      <c r="AW137">
+        <v>15.06755626</v>
+      </c>
+      <c r="AX137">
+        <v>8.46708718</v>
+      </c>
+      <c r="AY137">
+        <v>6.24893827</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>6.15354995</v>
+      </c>
+      <c r="BC137">
+        <v>20.32779003</v>
+      </c>
+      <c r="BD137">
+        <v>0.38493623</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:57">
       <c r="A138" t="s">
         <v>192</v>
+      </c>
+      <c r="B138">
+        <v>15.77041573</v>
+      </c>
+      <c r="C138">
+        <v>6.38167513</v>
+      </c>
+      <c r="D138">
+        <v>23.71020169</v>
+      </c>
+      <c r="F138">
+        <v>26.51272462</v>
+      </c>
+      <c r="G138">
+        <v>7.40757907</v>
+      </c>
+      <c r="H138">
+        <v>9.420704300000001</v>
+      </c>
+      <c r="I138">
+        <v>6.83980607</v>
+      </c>
+      <c r="J138">
+        <v>32.21023785</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>14.28591495</v>
+      </c>
+      <c r="M138">
+        <v>11.08580303</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>14.67345876</v>
+      </c>
+      <c r="Q138">
+        <v>13.26997064</v>
+      </c>
+      <c r="R138">
+        <v>9.7365651</v>
+      </c>
+      <c r="S138">
+        <v>5.91243506</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>13.4346547</v>
+      </c>
+      <c r="V138">
+        <v>11.99935221</v>
+      </c>
+      <c r="W138">
+        <v>16.6380782</v>
+      </c>
+      <c r="X138">
+        <v>15.72519331</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>9.99906316</v>
+      </c>
+      <c r="AA138">
+        <v>22.68294042</v>
+      </c>
+      <c r="AB138">
+        <v>7.12263309</v>
+      </c>
+      <c r="AD138">
+        <v>17.07461943</v>
+      </c>
+      <c r="AE138">
+        <v>11.62450955</v>
+      </c>
+      <c r="AF138">
+        <v>10.25059847</v>
+      </c>
+      <c r="AG138">
+        <v>7.61638963</v>
+      </c>
+      <c r="AH138">
+        <v>6.85922549</v>
+      </c>
+      <c r="AI138">
+        <v>16.8069376</v>
+      </c>
+      <c r="AJ138">
+        <v>10.74776547</v>
+      </c>
+      <c r="AK138">
+        <v>30.40885957</v>
+      </c>
+      <c r="AL138">
+        <v>10.1673603</v>
+      </c>
+      <c r="AM138">
+        <v>9.44845267</v>
+      </c>
+      <c r="AN138">
+        <v>2.12614932</v>
+      </c>
+      <c r="AO138">
+        <v>41.86124212</v>
+      </c>
+      <c r="AP138">
+        <v>9.92145983</v>
+      </c>
+      <c r="AQ138">
+        <v>10.17048866</v>
+      </c>
+      <c r="AS138">
+        <v>17.67455181</v>
+      </c>
+      <c r="AT138">
+        <v>16.21495703</v>
+      </c>
+      <c r="AU138">
+        <v>35.37237619</v>
+      </c>
+      <c r="AV138">
+        <v>9.097915929999999</v>
+      </c>
+      <c r="AW138">
+        <v>17.45870941</v>
+      </c>
+      <c r="AX138">
+        <v>17.94682038</v>
+      </c>
+      <c r="AY138">
+        <v>6.60244982</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>4.70917041</v>
+      </c>
+      <c r="BC138">
+        <v>26.92472059</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:57">
+      <c r="A139" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139">
+        <v>8.995002939999999</v>
+      </c>
+      <c r="C139">
+        <v>19.95484601</v>
+      </c>
+      <c r="D139">
+        <v>29.78224315</v>
+      </c>
+      <c r="F139">
+        <v>30.9799694</v>
+      </c>
+      <c r="G139">
+        <v>7.15260556</v>
+      </c>
+      <c r="H139">
+        <v>6.6276003</v>
+      </c>
+      <c r="I139">
+        <v>15.74717158</v>
+      </c>
+      <c r="J139">
+        <v>22.98935872</v>
+      </c>
+      <c r="K139">
+        <v>26.21685683</v>
+      </c>
+      <c r="L139">
+        <v>13.20190782</v>
+      </c>
+      <c r="M139">
+        <v>13.77585244</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>23.96417991</v>
+      </c>
+      <c r="Q139">
+        <v>11.00146451</v>
+      </c>
+      <c r="R139">
+        <v>7.96484606</v>
+      </c>
+      <c r="S139">
+        <v>10.99935895</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>10.43986587</v>
+      </c>
+      <c r="V139">
+        <v>8.26607347</v>
+      </c>
+      <c r="W139">
+        <v>14.32804681</v>
+      </c>
+      <c r="X139">
+        <v>13.84989237</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>8.61696733</v>
+      </c>
+      <c r="AA139">
+        <v>19.90160216</v>
+      </c>
+      <c r="AB139">
+        <v>7.00341663</v>
+      </c>
+      <c r="AD139">
+        <v>37.71430179</v>
+      </c>
+      <c r="AE139">
+        <v>37.88782251</v>
+      </c>
+      <c r="AF139">
+        <v>11.19011656</v>
+      </c>
+      <c r="AG139">
+        <v>5.50594411</v>
+      </c>
+      <c r="AH139">
+        <v>18.97673376</v>
+      </c>
+      <c r="AI139">
+        <v>12.4357182</v>
+      </c>
+      <c r="AJ139">
+        <v>11.46173419</v>
+      </c>
+      <c r="AK139">
+        <v>25.4200136</v>
+      </c>
+      <c r="AL139">
+        <v>7.64000837</v>
+      </c>
+      <c r="AM139">
+        <v>9.510178310000001</v>
+      </c>
+      <c r="AN139">
+        <v>3.33752991</v>
+      </c>
+      <c r="AO139">
+        <v>38.37336103</v>
+      </c>
+      <c r="AP139">
+        <v>13.67848488</v>
+      </c>
+      <c r="AQ139">
+        <v>9.42713382</v>
+      </c>
+      <c r="AS139">
+        <v>14.31806794</v>
+      </c>
+      <c r="AT139">
+        <v>15.31797972</v>
+      </c>
+      <c r="AU139">
+        <v>28.26860419</v>
+      </c>
+      <c r="AV139">
+        <v>10.73419307</v>
+      </c>
+      <c r="AW139">
+        <v>17.15001446</v>
+      </c>
+      <c r="AX139">
+        <v>18.49054225</v>
+      </c>
+      <c r="AY139">
+        <v>6.99744458</v>
+      </c>
+      <c r="BA139">
+        <v>17.27835865</v>
+      </c>
+      <c r="BB139">
+        <v>6.57738704</v>
+      </c>
+      <c r="BC139">
+        <v>29.19185408</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:57">
+      <c r="A140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:57">
+      <c r="A141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:57">
+      <c r="A142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:57">
+      <c r="A143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:57">
+      <c r="A144" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/ghtState.xlsx
+++ b/ghtState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Alaska</t>
   </si>
@@ -612,6 +612,18 @@
   <si>
     <t>22 06 2020</t>
   </si>
+  <si>
+    <t>23 06 2020</t>
+  </si>
+  <si>
+    <t>24 06 2020</t>
+  </si>
+  <si>
+    <t>25 06 2020</t>
+  </si>
+  <si>
+    <t>26 06 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -942,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE144"/>
+  <dimension ref="A1:BE148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22926,25 +22938,810 @@
       <c r="A140" t="s">
         <v>194</v>
       </c>
+      <c r="B140">
+        <v>3.54933378</v>
+      </c>
+      <c r="C140">
+        <v>22.75420331</v>
+      </c>
+      <c r="D140">
+        <v>29.21816616</v>
+      </c>
+      <c r="F140">
+        <v>32.06064262</v>
+      </c>
+      <c r="G140">
+        <v>7.57006494</v>
+      </c>
+      <c r="H140">
+        <v>6.29778047</v>
+      </c>
+      <c r="I140">
+        <v>11.55155918</v>
+      </c>
+      <c r="J140">
+        <v>14.89273478</v>
+      </c>
+      <c r="K140">
+        <v>23.06657092</v>
+      </c>
+      <c r="L140">
+        <v>14.26889578</v>
+      </c>
+      <c r="M140">
+        <v>13.84721165</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>29.27596068</v>
+      </c>
+      <c r="Q140">
+        <v>26.29854249</v>
+      </c>
+      <c r="R140">
+        <v>8.26333337</v>
+      </c>
+      <c r="S140">
+        <v>8.68358276</v>
+      </c>
+      <c r="T140">
+        <v>14.21616393</v>
+      </c>
+      <c r="U140">
+        <v>17.99344383</v>
+      </c>
+      <c r="V140">
+        <v>11.95357201</v>
+      </c>
+      <c r="W140">
+        <v>12.15381626</v>
+      </c>
+      <c r="X140">
+        <v>10.24755617</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>7.36503458</v>
+      </c>
+      <c r="AA140">
+        <v>14.97123753</v>
+      </c>
+      <c r="AB140">
+        <v>9.24353582</v>
+      </c>
+      <c r="AD140">
+        <v>49.82325379</v>
+      </c>
+      <c r="AE140">
+        <v>32.32487106</v>
+      </c>
+      <c r="AF140">
+        <v>12.03570985</v>
+      </c>
+      <c r="AG140">
+        <v>3.70873099</v>
+      </c>
+      <c r="AH140">
+        <v>15.57609549</v>
+      </c>
+      <c r="AI140">
+        <v>18.33635983</v>
+      </c>
+      <c r="AJ140">
+        <v>12.0839654</v>
+      </c>
+      <c r="AK140">
+        <v>41.07691133</v>
+      </c>
+      <c r="AL140">
+        <v>17.8429001</v>
+      </c>
+      <c r="AM140">
+        <v>8.573965400000001</v>
+      </c>
+      <c r="AN140">
+        <v>8.749599570000001</v>
+      </c>
+      <c r="AO140">
+        <v>30.36990321</v>
+      </c>
+      <c r="AP140">
+        <v>14.05490297</v>
+      </c>
+      <c r="AQ140">
+        <v>7.77396204</v>
+      </c>
+      <c r="AS140">
+        <v>22.01483012</v>
+      </c>
+      <c r="AT140">
+        <v>19.99209226</v>
+      </c>
+      <c r="AU140">
+        <v>21.4748459</v>
+      </c>
+      <c r="AV140">
+        <v>18.15143556</v>
+      </c>
+      <c r="AW140">
+        <v>19.37779344</v>
+      </c>
+      <c r="AX140">
+        <v>14.66878021</v>
+      </c>
+      <c r="AY140">
+        <v>6.197653</v>
+      </c>
+      <c r="BA140">
+        <v>15.38869597</v>
+      </c>
+      <c r="BB140">
+        <v>6.65820503</v>
+      </c>
+      <c r="BC140">
+        <v>30.66829274</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:57">
       <c r="A141" t="s">
         <v>195</v>
       </c>
+      <c r="B141">
+        <v>23.07197513</v>
+      </c>
+      <c r="C141">
+        <v>31.51753125</v>
+      </c>
+      <c r="D141">
+        <v>22.81315585</v>
+      </c>
+      <c r="F141">
+        <v>31.31552843</v>
+      </c>
+      <c r="G141">
+        <v>7.85835547</v>
+      </c>
+      <c r="H141">
+        <v>6.14485069</v>
+      </c>
+      <c r="I141">
+        <v>11.12484049</v>
+      </c>
+      <c r="J141">
+        <v>8.074904610000001</v>
+      </c>
+      <c r="K141">
+        <v>19.56387429</v>
+      </c>
+      <c r="L141">
+        <v>12.73009263</v>
+      </c>
+      <c r="M141">
+        <v>17.21042151</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>42.86734835</v>
+      </c>
+      <c r="Q141">
+        <v>40.13876664</v>
+      </c>
+      <c r="R141">
+        <v>8.64318411</v>
+      </c>
+      <c r="S141">
+        <v>17.03205038</v>
+      </c>
+      <c r="T141">
+        <v>12.53056235</v>
+      </c>
+      <c r="U141">
+        <v>17.84808536</v>
+      </c>
+      <c r="V141">
+        <v>8.489246659999999</v>
+      </c>
+      <c r="W141">
+        <v>11.9978301</v>
+      </c>
+      <c r="X141">
+        <v>10.69753528</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>6.34390689</v>
+      </c>
+      <c r="AA141">
+        <v>17.43779789</v>
+      </c>
+      <c r="AB141">
+        <v>15.81642045</v>
+      </c>
+      <c r="AD141">
+        <v>40.99815773</v>
+      </c>
+      <c r="AE141">
+        <v>26.50919815</v>
+      </c>
+      <c r="AF141">
+        <v>13.93130408</v>
+      </c>
+      <c r="AG141">
+        <v>2.16727502</v>
+      </c>
+      <c r="AH141">
+        <v>12.2306104</v>
+      </c>
+      <c r="AI141">
+        <v>13.86215093</v>
+      </c>
+      <c r="AJ141">
+        <v>12.77141751</v>
+      </c>
+      <c r="AK141">
+        <v>47.6737252</v>
+      </c>
+      <c r="AL141">
+        <v>22.86265853</v>
+      </c>
+      <c r="AM141">
+        <v>8.865683539999999</v>
+      </c>
+      <c r="AN141">
+        <v>8.16612054</v>
+      </c>
+      <c r="AO141">
+        <v>31.20472873</v>
+      </c>
+      <c r="AP141">
+        <v>14.22864228</v>
+      </c>
+      <c r="AQ141">
+        <v>7.31798952</v>
+      </c>
+      <c r="AS141">
+        <v>17.66915876</v>
+      </c>
+      <c r="AT141">
+        <v>18.58322389</v>
+      </c>
+      <c r="AU141">
+        <v>15.25901598</v>
+      </c>
+      <c r="AV141">
+        <v>14.57208722</v>
+      </c>
+      <c r="AW141">
+        <v>19.76659741</v>
+      </c>
+      <c r="AX141">
+        <v>11.05211921</v>
+      </c>
+      <c r="AY141">
+        <v>5.5915531</v>
+      </c>
+      <c r="BA141">
+        <v>13.20561135</v>
+      </c>
+      <c r="BB141">
+        <v>5.07218123</v>
+      </c>
+      <c r="BC141">
+        <v>33.99274262</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:57">
       <c r="A142" t="s">
         <v>196</v>
       </c>
+      <c r="B142">
+        <v>17.35712836</v>
+      </c>
+      <c r="C142">
+        <v>25.90733783</v>
+      </c>
+      <c r="D142">
+        <v>16.91026042</v>
+      </c>
+      <c r="F142">
+        <v>32.99912113</v>
+      </c>
+      <c r="G142">
+        <v>8.501628849999999</v>
+      </c>
+      <c r="H142">
+        <v>6.48126063</v>
+      </c>
+      <c r="I142">
+        <v>7.69126479</v>
+      </c>
+      <c r="J142">
+        <v>2.6065077</v>
+      </c>
+      <c r="K142">
+        <v>15.91563657</v>
+      </c>
+      <c r="L142">
+        <v>15.01950778</v>
+      </c>
+      <c r="M142">
+        <v>18.31282645</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>46.03606968</v>
+      </c>
+      <c r="Q142">
+        <v>33.5671213</v>
+      </c>
+      <c r="R142">
+        <v>8.247448690000001</v>
+      </c>
+      <c r="S142">
+        <v>19.0361658</v>
+      </c>
+      <c r="T142">
+        <v>10.63527391</v>
+      </c>
+      <c r="U142">
+        <v>13.97616171</v>
+      </c>
+      <c r="V142">
+        <v>5.51550835</v>
+      </c>
+      <c r="W142">
+        <v>8.527361170000001</v>
+      </c>
+      <c r="X142">
+        <v>7.46498967</v>
+      </c>
+      <c r="Y142">
+        <v>11.73917124</v>
+      </c>
+      <c r="Z142">
+        <v>4.1600268</v>
+      </c>
+      <c r="AA142">
+        <v>15.38639743</v>
+      </c>
+      <c r="AB142">
+        <v>22.91948226</v>
+      </c>
+      <c r="AD142">
+        <v>39.37454104</v>
+      </c>
+      <c r="AE142">
+        <v>20.75070391</v>
+      </c>
+      <c r="AF142">
+        <v>10.7549154</v>
+      </c>
+      <c r="AG142">
+        <v>0.85456375</v>
+      </c>
+      <c r="AH142">
+        <v>9.074045549999999</v>
+      </c>
+      <c r="AI142">
+        <v>9.856447360000001</v>
+      </c>
+      <c r="AJ142">
+        <v>9.63845149</v>
+      </c>
+      <c r="AK142">
+        <v>38.79616001</v>
+      </c>
+      <c r="AL142">
+        <v>18.50886606</v>
+      </c>
+      <c r="AM142">
+        <v>8.48410778</v>
+      </c>
+      <c r="AN142">
+        <v>10.2199707</v>
+      </c>
+      <c r="AO142">
+        <v>37.39990613</v>
+      </c>
+      <c r="AP142">
+        <v>17.81906869</v>
+      </c>
+      <c r="AQ142">
+        <v>5.01964729</v>
+      </c>
+      <c r="AS142">
+        <v>13.51031079</v>
+      </c>
+      <c r="AT142">
+        <v>26.74159645</v>
+      </c>
+      <c r="AU142">
+        <v>9.82216519</v>
+      </c>
+      <c r="AV142">
+        <v>20.25559872</v>
+      </c>
+      <c r="AW142">
+        <v>21.4266656</v>
+      </c>
+      <c r="AX142">
+        <v>7.75808352</v>
+      </c>
+      <c r="AY142">
+        <v>5.27235046</v>
+      </c>
+      <c r="BA142">
+        <v>10.83813674</v>
+      </c>
+      <c r="BB142">
+        <v>3.62592391</v>
+      </c>
+      <c r="BC142">
+        <v>31.8996932</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:57">
       <c r="A143" t="s">
         <v>197</v>
       </c>
+      <c r="B143">
+        <v>12.44247602</v>
+      </c>
+      <c r="C143">
+        <v>27.53835207</v>
+      </c>
+      <c r="D143">
+        <v>24.70792822</v>
+      </c>
+      <c r="F143">
+        <v>36.74927442</v>
+      </c>
+      <c r="G143">
+        <v>7.87585451</v>
+      </c>
+      <c r="H143">
+        <v>11.80438755</v>
+      </c>
+      <c r="I143">
+        <v>8.5074387</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>12.32107749</v>
+      </c>
+      <c r="L143">
+        <v>17.30358404</v>
+      </c>
+      <c r="M143">
+        <v>18.57975647</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>48.60598331</v>
+      </c>
+      <c r="Q143">
+        <v>37.32640142</v>
+      </c>
+      <c r="R143">
+        <v>9.61809775</v>
+      </c>
+      <c r="S143">
+        <v>15.30158142</v>
+      </c>
+      <c r="T143">
+        <v>34.05139093</v>
+      </c>
+      <c r="U143">
+        <v>14.31646152</v>
+      </c>
+      <c r="V143">
+        <v>15.35497133</v>
+      </c>
+      <c r="W143">
+        <v>9.346437740000001</v>
+      </c>
+      <c r="X143">
+        <v>4.68614514</v>
+      </c>
+      <c r="Y143">
+        <v>10.33372303</v>
+      </c>
+      <c r="Z143">
+        <v>6.83991943</v>
+      </c>
+      <c r="AA143">
+        <v>16.19301166</v>
+      </c>
+      <c r="AB143">
+        <v>26.58231066</v>
+      </c>
+      <c r="AD143">
+        <v>30.42306606</v>
+      </c>
+      <c r="AE143">
+        <v>15.32387825</v>
+      </c>
+      <c r="AF143">
+        <v>12.65147811</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>22.67297304</v>
+      </c>
+      <c r="AI143">
+        <v>27.42967304</v>
+      </c>
+      <c r="AJ143">
+        <v>11.04227034</v>
+      </c>
+      <c r="AK143">
+        <v>30.15879603</v>
+      </c>
+      <c r="AL143">
+        <v>23.79927476</v>
+      </c>
+      <c r="AM143">
+        <v>7.52842621</v>
+      </c>
+      <c r="AN143">
+        <v>9.37713857</v>
+      </c>
+      <c r="AO143">
+        <v>38.32405913</v>
+      </c>
+      <c r="AP143">
+        <v>17.61368456</v>
+      </c>
+      <c r="AQ143">
+        <v>3.06749394</v>
+      </c>
+      <c r="AS143">
+        <v>9.69094392</v>
+      </c>
+      <c r="AT143">
+        <v>37.10950704</v>
+      </c>
+      <c r="AU143">
+        <v>5.28807802</v>
+      </c>
+      <c r="AV143">
+        <v>18.31907826</v>
+      </c>
+      <c r="AW143">
+        <v>22.45793246</v>
+      </c>
+      <c r="AX143">
+        <v>4.87906805</v>
+      </c>
+      <c r="AY143">
+        <v>6.70060031</v>
+      </c>
+      <c r="BA143">
+        <v>8.4187335</v>
+      </c>
+      <c r="BB143">
+        <v>8.377298809999999</v>
+      </c>
+      <c r="BC143">
+        <v>32.75413663</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:57">
       <c r="A144" t="s">
         <v>198</v>
+      </c>
+      <c r="B144">
+        <v>8.30925045</v>
+      </c>
+      <c r="C144">
+        <v>27.58211666</v>
+      </c>
+      <c r="D144">
+        <v>35.30483846</v>
+      </c>
+      <c r="F144">
+        <v>38.67392941</v>
+      </c>
+      <c r="G144">
+        <v>8.651165799999999</v>
+      </c>
+      <c r="H144">
+        <v>17.55269651</v>
+      </c>
+      <c r="I144">
+        <v>5.69052992</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>8.95483595</v>
+      </c>
+      <c r="L144">
+        <v>17.19627665</v>
+      </c>
+      <c r="M144">
+        <v>21.32011093</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>38.83660193</v>
+      </c>
+      <c r="Q144">
+        <v>38.43167252</v>
+      </c>
+      <c r="R144">
+        <v>10.31799186</v>
+      </c>
+      <c r="S144">
+        <v>20.01096584</v>
+      </c>
+      <c r="T144">
+        <v>39.83672276</v>
+      </c>
+      <c r="U144">
+        <v>17.40496595</v>
+      </c>
+      <c r="V144">
+        <v>26.92229405</v>
+      </c>
+      <c r="W144">
+        <v>9.55353895</v>
+      </c>
+      <c r="X144">
+        <v>6.13074275</v>
+      </c>
+      <c r="Y144">
+        <v>8.767332529999999</v>
+      </c>
+      <c r="Z144">
+        <v>6.1041072</v>
+      </c>
+      <c r="AA144">
+        <v>13.97322583</v>
+      </c>
+      <c r="AB144">
+        <v>28.18982487</v>
+      </c>
+      <c r="AD144">
+        <v>34.07656066</v>
+      </c>
+      <c r="AE144">
+        <v>10.44772007</v>
+      </c>
+      <c r="AF144">
+        <v>13.62443181</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>46.47372249</v>
+      </c>
+      <c r="AI144">
+        <v>21.97812319</v>
+      </c>
+      <c r="AJ144">
+        <v>9.287312890000001</v>
+      </c>
+      <c r="AK144">
+        <v>22.11509164</v>
+      </c>
+      <c r="AL144">
+        <v>27.39474184</v>
+      </c>
+      <c r="AM144">
+        <v>6.46369913</v>
+      </c>
+      <c r="AN144">
+        <v>9.37971368</v>
+      </c>
+      <c r="AO144">
+        <v>41.6575904</v>
+      </c>
+      <c r="AP144">
+        <v>16.75869192</v>
+      </c>
+      <c r="AQ144">
+        <v>3.45043751</v>
+      </c>
+      <c r="AS144">
+        <v>6.32914235</v>
+      </c>
+      <c r="AT144">
+        <v>37.0947152</v>
+      </c>
+      <c r="AU144">
+        <v>1.70276781</v>
+      </c>
+      <c r="AV144">
+        <v>16.05508527</v>
+      </c>
+      <c r="AW144">
+        <v>25.6062826</v>
+      </c>
+      <c r="AX144">
+        <v>10.69838389</v>
+      </c>
+      <c r="AY144">
+        <v>6.18870566</v>
+      </c>
+      <c r="BA144">
+        <v>6.08181765</v>
+      </c>
+      <c r="BB144">
+        <v>14.86868986</v>
+      </c>
+      <c r="BC144">
+        <v>34.12045205</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
